--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -7399,6 +7399,14 @@
           <t>https://autotumen.ru/cars/jac/js3/</t>
         </is>
       </c>
+      <c r="H143" t="n">
+        <v>1849000</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/jac/js3/</t>
+        </is>
+      </c>
       <c r="J143" t="n">
         <v>833000</v>
       </c>
@@ -11633,14 +11641,6 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>https://autotumen.ru/cars/mg/5/</t>
-        </is>
-      </c>
-      <c r="H233" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/mg/5/</t>
         </is>
       </c>
       <c r="J233" t="n">

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -2090,11 +2090,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2379930</v>
+        <v>1549900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/chery/arrizo-8/chery-tiggo-arrizo-8/</t>
+          <t>https://autotumen.ru/cars/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2959900</v>
+        <v>1549900</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2587,11 +2587,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1939000</v>
+        <v>1247000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://autotumen.ru/cars/chery/new_tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2610,6 +2610,14 @@
       <c r="I40" t="inlineStr">
         <is>
           <t>https://bazis-motors.ru/cars/chery/tiggo-7-pro-max-fl/</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1247000</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/chery/new_tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -800,11 +800,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1842000</v>
+        <v>751000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/belgee/x50/</t>
+          <t>https://tumen-car.ru/cars/belgee/x50/</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1842000</v>
+        <v>751000</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1842000</v>
+        <v>766000</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2184990</v>
+        <v>1054000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/belgee/belgee-x70/</t>
+          <t>https://autotumen.ru/cars/belgee/x70/</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -864,6 +864,22 @@
           <t>https://bazis-motors.ru/cars/belgee/belgee-x70/</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>1054000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/belgee/x70/</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1054000</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/belgee/x70/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8018,6 +8034,16 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/jetour/novyj-resurs2/novyj-resurs</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2359000</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="H156" t="n">

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -5435,6 +5435,22 @@
           <t>https://autocentr-72.ru/auto/geely/okavango/</t>
         </is>
       </c>
+      <c r="J99" t="n">
+        <v>2067000</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/geely/okavango_new/</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>2067000</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/geely/okavango_new/</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11744,7 +11760,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1569000</v>
+        <v>1499000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11752,7 +11768,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1569000</v>
+        <v>1499000</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -11768,7 +11784,7 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>1569000</v>
+        <v>1499000</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2084990</v>
+        <v>2122990</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>2198990</v>
+        <v>2236990</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4925,6 +4925,14 @@
           <t>https://autotumen.ru/cars/geely/cityray/</t>
         </is>
       </c>
+      <c r="H89" t="n">
+        <v>2399990</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/geely/cityray/</t>
+        </is>
+      </c>
       <c r="J89" t="n">
         <v>1579000</v>
       </c>
@@ -5609,14 +5617,6 @@
           <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/geely/tugella/geely-tugella-2/</t>
         </is>
       </c>
-      <c r="H103" t="n">
-        <v>3395990</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/geely/tugella/</t>
-        </is>
-      </c>
       <c r="J103" t="n">
         <v>2249990</v>
       </c>
@@ -7985,6 +7985,16 @@
       <c r="E155" t="inlineStr">
         <is>
           <t>https://autotumen.ru/cars/jaecoo/j8/</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3079000</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="J155" t="n">

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -12994,7 +12994,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -13004,79 +13004,79 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>2939000</v>
+        <v>2729000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/5008/</t>
+          <t>https://autotumen.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>2939000</v>
+        <v>2729000</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/peugeot/5008/</t>
+          <t>https://tumen-car.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="N263" t="n">
-        <v>2939000</v>
+        <v>2729000</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/5008/</t>
+          <t>https://autotumen.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>379000</v>
+        <v>2939000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/gentra/</t>
+          <t>https://autotumen.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>379000</v>
+        <v>2939000</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/ravon/gentra/</t>
+          <t>https://tumen-car.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="N264" t="n">
-        <v>379000</v>
+        <v>2939000</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/gentra/</t>
+          <t>https://autotumen.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -13086,48 +13086,38 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>344000</v>
+        <v>379000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>344000</t>
-        </is>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autotumen.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>344000</v>
+        <v>379000</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/ravon/nexia_r3/</t>
+          <t>https://tumen-car.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>344000</v>
+        <v>379000</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autotumen.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -13137,48 +13127,48 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>334000</v>
+        <v>344000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r2/</t>
+          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>334000</t>
+          <t>344000</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/ravon/r2/</t>
+          <t>https://autocentr-72.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>334000</v>
+        <v>344000</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/ravon/r2/</t>
+          <t>https://tumen-car.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>334000</v>
+        <v>344000</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r2/</t>
+          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -13188,99 +13178,99 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>394000</v>
+        <v>334000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r4/</t>
+          <t>https://autotumen.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>334000</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/ravon/r4/</t>
+          <t>https://autocentr-72.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>394000</v>
+        <v>334000</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/ravon/r4/</t>
+          <t>https://tumen-car.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="N267" t="n">
-        <v>394000</v>
+        <v>334000</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r4/</t>
+          <t>https://autotumen.ru/cars/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>938000</v>
+        <v>394000</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/arkana/</t>
+          <t>https://autotumen.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/arkana/</t>
+          <t>https://autocentr-72.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>938000</v>
+        <v>394000</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/arkana/</t>
+          <t>https://tumen-car.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>938000</v>
+        <v>394000</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/arkana/</t>
+          <t>https://autotumen.ru/cars/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -13290,38 +13280,48 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>646000</v>
+        <v>938000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/duster/</t>
+          <t>https://autotumen.ru/cars/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>938000</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>646000</v>
+        <v>938000</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/duster/</t>
+          <t>https://tumen-car.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="N269" t="n">
-        <v>646000</v>
+        <v>938000</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/duster/</t>
+          <t>https://autotumen.ru/cars/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -13339,24 +13339,30 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>646000</t>
-        </is>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/renault/duster/</t>
+          <t>https://autotumen.ru/cars/renault/duster/</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>646000</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/renault/duster/</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>646000</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13366,48 +13372,32 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>896000</v>
+        <v>646000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/kaptur/</t>
+          <t>https://autocentr-72.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>646000</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="J271" t="n">
-        <v>896000</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="N271" t="n">
-        <v>896000</v>
-      </c>
-      <c r="O271" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/renault/kaptur/</t>
+          <t>https://autocentr-72.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -13417,48 +13407,48 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>430000</v>
+        <v>896000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan/</t>
+          <t>https://autotumen.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>896000</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/logan/</t>
+          <t>https://autocentr-72.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>430000</v>
+        <v>896000</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/logan/</t>
+          <t>https://tumen-car.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>430000</v>
+        <v>896000</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan/</t>
+          <t>https://autotumen.ru/cars/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -13468,48 +13458,48 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>536990</v>
+        <v>430000</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
+          <t>https://autotumen.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/logan_stepway/</t>
+          <t>https://autocentr-72.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>536990</v>
+        <v>430000</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/logan_stepway/</t>
+          <t>https://tumen-car.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>536990</v>
+        <v>430000</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
+          <t>https://autotumen.ru/cars/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -13519,32 +13509,48 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>924700</v>
+        <v>536990</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>924700</t>
+          <t>536990</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocentr-72.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>536990</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>536990</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -13554,48 +13560,32 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>431000</v>
+        <v>924700</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero/</t>
+          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>924700</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="J275" t="n">
-        <v>431000</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="N275" t="n">
-        <v>431000</v>
-      </c>
-      <c r="O275" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/renault/sandero/</t>
+          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -13605,48 +13595,48 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>566990</v>
+        <v>431000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autotumen.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>431000</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocentr-72.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>566990</v>
+        <v>431000</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/sandero_stepway/</t>
+          <t>https://tumen-car.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>566990</v>
+        <v>431000</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autotumen.ru/cars/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -13656,73 +13646,83 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>975100</v>
+        <v>566990</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>975100</t>
+          <t>566990</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocentr-72.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>566990</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>566990</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1743000</v>
+        <v>975100</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g01/</t>
-        </is>
-      </c>
-      <c r="J278" t="n">
-        <v>1743000</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/swm/g01/</t>
-        </is>
-      </c>
-      <c r="N278" t="n">
-        <v>1743000</v>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/swm/g01/</t>
+          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>975100</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -13732,38 +13732,38 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1955000</v>
+        <v>1743000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g01f/</t>
+          <t>https://autotumen.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1955000</v>
+        <v>1743000</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/swm/g01f/</t>
+          <t>https://tumen-car.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="N279" t="n">
-        <v>1955000</v>
+        <v>1743000</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g01f/</t>
+          <t>https://autotumen.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -13773,89 +13773,79 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1984000</v>
+        <v>1955000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
+          <t>https://autotumen.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1984000</v>
+        <v>1955000</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/swm/g05_pro/</t>
+          <t>https://tumen-car.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>1984000</v>
+        <v>1955000</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
+          <t>https://autotumen.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1066900</v>
+        <v>1984000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>1066900</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/skoda/karoq/</t>
+          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1066900</v>
+        <v>1984000</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/karoq/</t>
+          <t>https://tumen-car.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>1066900</v>
+        <v>1984000</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/karoq/</t>
+          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -13865,38 +13855,48 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1609500</v>
+        <v>1066900</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
+          <t>https://autotumen.ru/cars/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>1066900</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1609500</v>
+        <v>1066900</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/kodiaq/</t>
+          <t>https://tumen-car.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>1609500</v>
+        <v>1066900</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
+          <t>https://autotumen.ru/cars/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -13906,32 +13906,38 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2548000</v>
+        <v>1609500</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>2548000</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
+          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>1609500</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>1609500</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -13941,38 +13947,32 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1214000</v>
+        <v>2548000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="J284" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="N284" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/skoda/octavia/</t>
+          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2548000</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -13990,24 +13990,30 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>1214000</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
+          <t>https://autotumen.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -14017,48 +14023,32 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>570300</v>
+        <v>1214000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
+          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>1214000</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="J286" t="n">
-        <v>570300</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="N286" t="n">
-        <v>827300</v>
-      </c>
-      <c r="O286" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/skoda/rapid/</t>
+          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -14068,48 +14058,48 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1830000</v>
+        <v>570300</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/superb/</t>
+          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1830000</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/superb/</t>
+          <t>https://autocentr-72.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1830000</v>
+        <v>570300</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/superb/</t>
+          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>1830000</v>
+        <v>827300</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/superb/</t>
+          <t>https://autotumen.ru/cars/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -14119,83 +14109,83 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>2671900</v>
+        <v>1830000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
+          <t>https://autotumen.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2671900</t>
+          <t>1830000</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
+          <t>https://autocentr-72.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1892000</v>
+        <v>2671900</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hc/</t>
+          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>2671900</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="J289" t="n">
-        <v>1892000</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="N289" t="n">
-        <v>1892000</v>
-      </c>
-      <c r="O289" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/solaris/hc/</t>
+          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -14205,48 +14195,48 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1396000</v>
+        <v>1892000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hs/</t>
+          <t>https://autotumen.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1892000</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/solaris/hs/</t>
+          <t>https://autocentr-72.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1396000</v>
+        <v>1892000</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/solaris/hs/</t>
+          <t>https://tumen-car.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="N290" t="n">
-        <v>1396000</v>
+        <v>1892000</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hs/</t>
+          <t>https://autotumen.ru/cars/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -14256,48 +14246,48 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1459000</v>
+        <v>1396000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krs/</t>
+          <t>https://autotumen.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1396000</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/solaris/krs/</t>
+          <t>https://autocentr-72.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1459000</v>
+        <v>1396000</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/solaris/krs/</t>
+          <t>https://tumen-car.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>1459000</v>
+        <v>1396000</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krs/</t>
+          <t>https://autotumen.ru/cars/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -14307,140 +14297,132 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1576000</v>
+        <v>1459000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krx/</t>
+          <t>https://autotumen.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>1459000</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/solaris/krx/</t>
+          <t>https://autocentr-72.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1576000</v>
+        <v>1459000</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/solaris/krx/</t>
+          <t>https://tumen-car.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>1576000</v>
+        <v>1459000</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krx/</t>
+          <t>https://autotumen.ru/cars/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2040000</v>
+        <v>1576000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>2040000</v>
-      </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
+          <t>https://autotumen.ru/cars/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>1576000</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>1576000</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>1576000</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2869300</v>
+        <v>2040000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>2869300</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="J294" t="n">
-        <v>3859000</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/tank/300/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
         </is>
       </c>
       <c r="L294" t="n">
-        <v>2869300</v>
+        <v>2040000</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
-        </is>
-      </c>
-      <c r="N294" t="n">
-        <v>2900000</v>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/tank/300/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -14450,97 +14432,115 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3999000</v>
+        <v>2869300</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/tank/500/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>4409300</t>
+          <t>2869300</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/tank/500/</t>
+          <t>https://autocentr-72.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>6059000</v>
+        <v>3859000</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/tank/500/</t>
+          <t>https://tumen-car.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="L295" t="n">
-        <v>4409300</v>
+        <v>2869300</v>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/500/tank-500</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>3999000</v>
+        <v>2900000</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/tank/500/</t>
+          <t>https://autotumen.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>1789000</v>
+        <v>3999000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
+          <t>https://autotumen.ru/cars/tank/500/</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>4409300</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1789000</v>
+        <v>6059000</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/c-hr/</t>
+          <t>https://tumen-car.ru/cars/tank/500/</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>4409300</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/500/tank-500</t>
         </is>
       </c>
       <c r="N296" t="n">
-        <v>1789000</v>
+        <v>3999000</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
+          <t>https://autotumen.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -14550,38 +14550,38 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1712500</v>
+        <v>1789000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/camry/</t>
+          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1712500</v>
+        <v>1789000</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/camry/</t>
+          <t>https://tumen-car.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>1712500</v>
+        <v>1789000</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/camry/</t>
+          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -14591,38 +14591,38 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3213000</v>
+        <v>1712500</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
+          <t>https://autotumen.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3213000</v>
+        <v>1712500</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/new_camry/</t>
+          <t>https://tumen-car.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>3213000</v>
+        <v>1712500</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
+          <t>https://autotumen.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -14632,38 +14632,38 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1286000</v>
+        <v>3213000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/corolla/</t>
+          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1286000</v>
+        <v>3213000</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/corolla/</t>
+          <t>https://tumen-car.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
       <c r="N299" t="n">
-        <v>1286000</v>
+        <v>3213000</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/corolla/</t>
+          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -14673,73 +14673,79 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1859000</v>
+        <v>1286000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/rav4/</t>
+          <t>https://autotumen.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1859000</v>
+        <v>1286000</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/rav4/</t>
+          <t>https://tumen-car.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="N300" t="n">
-        <v>1859000</v>
+        <v>1286000</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/rav4/</t>
+          <t>https://autotumen.ru/cars/toyota/corolla/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>976500</v>
+        <v>1859000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>976500</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
+          <t>https://autotumen.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -14749,32 +14755,32 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>657000</v>
+        <v>976500</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
+          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>976500</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
+          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -14784,7 +14790,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -14792,30 +14798,24 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="J303" t="n">
-        <v>657000</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="N303" t="n">
-        <v>657000</v>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/uaz/patriot/</t>
+          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>657000</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -14825,32 +14825,38 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>696500</v>
+        <v>657000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>696500</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autotumen.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>657000</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>657000</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -14860,7 +14866,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -14868,81 +14874,65 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/uaz/pikap/</t>
-        </is>
-      </c>
-      <c r="J305" t="n">
-        <v>696500</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/uaz/pikap/</t>
-        </is>
-      </c>
-      <c r="N305" t="n">
-        <v>696500</v>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/uaz/pikap/</t>
+          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>696500</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1070300</v>
+        <v>696500</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>1070300</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/jetta/</t>
+          <t>https://autotumen.ru/cars/uaz/pikap/</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1070300</v>
+        <v>696500</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/volkswagen/jetta/</t>
+          <t>https://tumen-car.ru/cars/uaz/pikap/</t>
         </is>
       </c>
       <c r="N306" t="n">
-        <v>1070300</v>
+        <v>696500</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
+          <t>https://autotumen.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -14952,48 +14942,48 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1859200</v>
+        <v>1070300</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
+          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>1859200</t>
+          <t>1070300</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
+          <t>https://autocentr-72.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1954000</v>
+        <v>1070300</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/volkswagen/passat/</t>
+          <t>https://tumen-car.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>1954000</v>
+        <v>1070300</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/passat/</t>
+          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -15003,48 +14993,48 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>540300</v>
+        <v>1859200</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
+          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>540300</t>
+          <t>1859200</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/polo/</t>
+          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>540300</v>
+        <v>1954000</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/volkswagen/polo/</t>
+          <t>https://tumen-car.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>540300</v>
+        <v>1954000</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
+          <t>https://autotumen.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -15054,32 +15044,48 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1980230</v>
+        <v>540300</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
+          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>1980230</t>
+          <t>540300</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
+          <t>https://autocentr-72.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>540300</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>540300</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -15089,38 +15095,32 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>3558500</v>
+        <v>1980230</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="J310" t="n">
-        <v>3558500</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="N310" t="n">
-        <v>3558500</v>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
+          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>1980230</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -15130,38 +15130,38 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1329900</v>
+        <v>3558500</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
+          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1329900</v>
+        <v>3558500</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/volkswagen/tiguan/</t>
+          <t>https://tumen-car.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
       <c r="N311" t="n">
-        <v>1329900</v>
+        <v>3558500</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
+          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -15179,100 +15179,98 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>1329900</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1750000</v>
+        <v>1329900</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
-        </is>
-      </c>
-      <c r="N313" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
+          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>1329900</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>835640</v>
+        <v>1750000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>835640</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>835640</v>
-      </c>
-      <c r="M314" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
+          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -15282,74 +15280,76 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>T600</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>734000</v>
+        <v>835640</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/t600/zotye-t600-2</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>835640</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/zotye/t600/</t>
+          <t>https://autocentr-72.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="L315" t="n">
-        <v>734000</v>
+        <v>835640</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/t600/zotye-t600-2</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Новая машина, необходимо назначить id</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>peugeot</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2729000</v>
+        <v>734000</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/4008/</t>
-        </is>
-      </c>
-      <c r="J316" t="n">
-        <v>2729000</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/peugeot/4008/</t>
-        </is>
-      </c>
-      <c r="N316" t="n">
-        <v>2729000</v>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/peugeot/4008/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/t600/zotye-t600-2</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>734000</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>734000</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/t600/zotye-t600-2</t>
         </is>
       </c>
     </row>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -449,52 +449,52 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>autocentr-72.ru_price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>autocentr-72.ru</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>autocentr-72.ru_price</t>
-        </is>
-      </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>bazis-motors.ru_price</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>bazis-motors.ru</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>bazis-motors.ru_price</t>
-        </is>
-      </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>tumen-car.ru_price</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>tumen-car.ru</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>tumen-car.ru_price</t>
-        </is>
-      </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>china-avto-tumen.ru_price</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>china-avto-tumen.ru</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>china-avto-tumen.ru_price</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>autotumen.ru_price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>autotumen.ru</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>autotumen.ru_price</t>
         </is>
       </c>
     </row>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1973990</v>
+        <v>1996190</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2122990</v>
+        <v>2215190</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2893990</v>
+        <v>2974190</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2399990</v>
+        <v>2368190</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1762990</v>
+        <v>1757990</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>3776990</v>
+        <v>3790190</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>3078990</v>
+        <v>3106190</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>2755990</v>
+        <v>2818190</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -6562,6 +6562,16 @@
           <t>https://autotumen.ru/cars/haval/h3/</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1980000</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/haval/h3/</t>
+        </is>
+      </c>
       <c r="J124" t="n">
         <v>1980000</v>
       </c>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -1362,6 +1362,14 @@
           <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/changan/cs75plus/changan-cs75plus</t>
         </is>
       </c>
+      <c r="H18" t="n">
+        <v>3410000</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/changan/cs75plus/</t>
+        </is>
+      </c>
       <c r="J18" t="n">
         <v>2179000</v>
       </c>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O317"/>
+  <dimension ref="A1:Q326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,16 @@
           <t>autotumen.ru</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>avtosrf5-11.ru_price</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>avtosrf5-11.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10094,11 +10104,11 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>955500</v>
+        <v>692067</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/bronto/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="J199" t="n">
@@ -10117,11 +10127,19 @@
           <t>https://autotumen.ru/cars/lada/bronto/</t>
         </is>
       </c>
+      <c r="P199" t="n">
+        <v>692067</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10131,48 +10149,30 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>437700</v>
+        <v>1378470</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>437700</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="J200" t="n">
-        <v>437700</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="N200" t="n">
-        <v>437700</v>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/granta_cross/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>1378470</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10182,38 +10182,56 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>980900</v>
+        <v>437700</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_liftback_drive_active/</t>
+          <t>https://autotumen.ru/cars/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>437700</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>980900</v>
+        <v>437700</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/granta_liftback_drive_active/</t>
+          <t>https://tumen-car.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>980900</v>
+        <v>437700</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_liftback_drive_active/</t>
+          <t>https://autotumen.ru/cars/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>579230</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10223,32 +10241,46 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Drive Active Liftback</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>544950</v>
+        <v>565397</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>544950</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>980900</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/granta_liftback_drive_active/</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>980900</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/granta_liftback_drive_active/</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>565397</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10258,48 +10290,40 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>343700</v>
+        <v>413605</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_liftback/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>343700</t>
+          <t>544950</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="J203" t="n">
-        <v>343700</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="N203" t="n">
-        <v>343700</v>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/granta_liftback/</t>
+          <t>https://autocentr-72.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>413605</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -10309,32 +10333,56 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>321700</v>
+        <v>343700</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_sedan/</t>
+          <t>https://autotumen.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>321700</t>
+          <t>343700</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_sedan/</t>
+          <t>https://autocentr-72.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>343700</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>343700</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>393147</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -10344,48 +10392,40 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>387900</v>
+        <v>321700</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sd_drive_active/</t>
+          <t>https://autocentr-72.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>387900</t>
+          <t>321700</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="J205" t="n">
-        <v>387900</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/granta_sd_drive_active/</t>
-        </is>
-      </c>
-      <c r="N205" t="n">
-        <v>387900</v>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/granta_sd_drive_active/</t>
+          <t>https://autocentr-72.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>371947</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10395,38 +10435,56 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>321700</v>
+        <v>387900</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sd/</t>
+          <t>https://autotumen.ru/cars/lada/granta_sd_drive_active/</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>387900</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>321700</v>
+        <v>387900</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/granta_sd/</t>
+          <t>https://tumen-car.ru/cars/lada/granta_sd_drive_active/</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>321700</v>
+        <v>387900</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sd/</t>
+          <t>https://autotumen.ru/cars/lada/granta_sd_drive_active/</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>549497</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10436,38 +10494,38 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback New</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1289900</v>
+        <v>321700</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_liftback_sport/</t>
+          <t>https://autotumen.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1289900</v>
+        <v>321700</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/granta_liftback_sport/</t>
+          <t>https://tumen-car.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>1289900</v>
+        <v>321700</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_liftback_sport/</t>
+          <t>https://autotumen.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10477,38 +10535,30 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1249900</v>
+        <v>789640</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sd_sport/</t>
-        </is>
-      </c>
-      <c r="J208" t="n">
-        <v>1249900</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/granta_sd_sport/</t>
-        </is>
-      </c>
-      <c r="N208" t="n">
-        <v>1249900</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/granta_sd_sport/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>789640</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10518,48 +10568,38 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sport Liftback New</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>351300</v>
+        <v>1289900</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sw/</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>351300</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/granta_universal/</t>
+          <t>https://autotumen.ru/cars/lada/granta_liftback_sport/</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>351300</v>
+        <v>1289900</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/granta_sw/</t>
+          <t>https://tumen-car.ru/cars/lada/granta_liftback_sport/</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>351300</v>
+        <v>1289900</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sw/</t>
+          <t>https://autotumen.ru/cars/lada/granta_liftback_sport/</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10569,48 +10609,46 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>695300</v>
+        <v>768440</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/largus_cross_new_5/</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>695300</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/largus_cross/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>695300</v>
+        <v>1249900</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/largus_cross_new_5/</t>
+          <t>https://tumen-car.ru/cars/lada/granta_sd_sport/</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>702300</v>
+        <v>1249900</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/largus_cross_new_5/</t>
+          <t>https://autotumen.ru/cars/lada/granta_sd_sport/</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>768440</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -10620,38 +10658,30 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Largus Cross New 7 мест</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>722300</v>
+        <v>690530</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/largus_cross_new_7/</t>
-        </is>
-      </c>
-      <c r="J211" t="n">
-        <v>722300</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/largus_cross_new_7/</t>
-        </is>
-      </c>
-      <c r="N211" t="n">
-        <v>722300</v>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/largus_cross_new_7/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>690530</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10661,48 +10691,30 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>555300</v>
+        <v>711730</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/largus_new_5/</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>555300</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/largus/</t>
-        </is>
-      </c>
-      <c r="J212" t="n">
-        <v>555300</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/largus_new_5/</t>
-        </is>
-      </c>
-      <c r="N212" t="n">
-        <v>555300</v>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/largus_new_5/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>711730</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10712,38 +10724,56 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>582300</v>
+        <v>351300</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/largus_new_7/</t>
+          <t>https://autotumen.ru/cars/lada/granta_sw/</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>351300</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>582300</v>
+        <v>351300</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/largus_new_7/</t>
+          <t>https://tumen-car.ru/cars/lada/granta_sw/</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>582300</v>
+        <v>351300</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/largus_new_7/</t>
+          <t>https://autotumen.ru/cars/lada/granta_sw/</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>382229</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10753,38 +10783,30 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>444300</v>
+        <v>880800</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="J214" t="n">
-        <v>444300</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="N214" t="n">
-        <v>567300</v>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/largus_furgon/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>880800</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10794,32 +10816,30 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>444300</v>
+        <v>766267</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>444300</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/largus_furgon/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>766267</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10829,32 +10849,48 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>516600</v>
+        <v>695300</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/niva/</t>
+          <t>https://tumen-car.ru/cars/lada/largus_cross_new_5/</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>516600</t>
+          <t>695300</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/niva/</t>
+          <t>https://autocentr-72.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>695300</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/largus_cross_new_5/</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>702300</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/largus_cross_new_5/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -10864,48 +10900,38 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Cross New 7 мест</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>538300</v>
+        <v>722300</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/niva_legend_3d/</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>538300</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autotumen.ru/cars/lada/largus_cross_new_7/</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>538300</v>
+        <v>722300</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://tumen-car.ru/cars/lada/largus_cross_new_7/</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>538300</v>
+        <v>722300</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autotumen.ru/cars/lada/largus_cross_new_7/</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -10915,48 +10941,48 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>560300</v>
+        <v>555300</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autotumen.ru/cars/lada/largus_new_5/</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>560300</t>
+          <t>555300</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocentr-72.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>560300</v>
+        <v>555300</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://tumen-car.ru/cars/lada/largus_new_5/</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>560300</v>
+        <v>555300</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autotumen.ru/cars/lada/largus_new_5/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10966,32 +10992,38 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>576800</v>
+        <v>582300</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/niva_off-road/</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>576800</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/niva_off-road/</t>
+          <t>https://autotumen.ru/cars/lada/largus_new_7/</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>582300</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/largus_new_7/</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>582300</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/largus_new_7/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11001,48 +11033,38 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>875000</v>
+        <v>444300</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/niva-travel/</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>875000</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/niva_travel/</t>
+          <t>https://tumen-car.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>875000</v>
+        <v>444300</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/niva-travel/</t>
+          <t>https://tumen-car.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>875000</v>
+        <v>567300</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/niva-travel/</t>
+          <t>https://autotumen.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11052,48 +11074,32 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>634700</v>
+        <v>444300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cross/</t>
+          <t>https://autocentr-72.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>634700</t>
+          <t>444300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
-      <c r="J221" t="n">
-        <v>634700</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="N221" t="n">
-        <v>634700</v>
-      </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cross/</t>
+          <t>https://autocentr-72.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11103,48 +11109,40 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>876700</v>
+        <v>509482</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cross_new/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>876700</t>
+          <t>516600</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="J222" t="n">
-        <v>876700</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_cross_new/</t>
-        </is>
-      </c>
-      <c r="N222" t="n">
-        <v>876700</v>
-      </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cross_new/</t>
+          <t>https://autocentr-72.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>509482</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11154,48 +11152,56 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>612700</v>
+        <v>520930</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>612700</t>
+          <t>538300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://autocentr-72.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>612700</v>
+        <v>538300</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_sw/</t>
+          <t>https://tumen-car.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>612700</v>
+        <v>538300</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw/</t>
+          <t>https://autotumen.ru/cars/lada/niva_legend_3d/</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>520930</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11205,48 +11211,56 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>727700</v>
+        <v>488017</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>727700</t>
+          <t>560300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autocentr-72.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>727700</v>
+        <v>560300</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://tumen-car.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>727700</v>
+        <v>560300</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autotumen.ru/cars/lada/niva_legend_5d/</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>488017</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -11256,48 +11270,40 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>844700</v>
+        <v>568736</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_sw_cross_new/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>844700</t>
+          <t>576800</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_sw_cross/</t>
-        </is>
-      </c>
-      <c r="J225" t="n">
-        <v>844700</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_sw_cross_new/</t>
-        </is>
-      </c>
-      <c r="N225" t="n">
-        <v>876700</v>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw_cross_new/</t>
+          <t>https://autocentr-72.ru/auto/lada/niva_off-road/</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>568736</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11307,48 +11313,56 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>789700</v>
+        <v>697420</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw_new/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>789700</t>
+          <t>875000</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_sw/</t>
+          <t>https://autocentr-72.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>789700</v>
+        <v>875000</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_sw_new/</t>
+          <t>https://tumen-car.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>789700</v>
+        <v>875000</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw_new/</t>
+          <t>https://autotumen.ru/cars/lada/niva-travel/</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>697420</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -11358,48 +11372,30 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>525700</v>
+        <v>458443</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>525700</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="J227" t="n">
-        <v>525700</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="N227" t="n">
-        <v>525700</v>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/vesta/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>458443</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11409,48 +11405,30 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>725700</v>
+        <v>488070</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cng/</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>725700</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_cng/</t>
-        </is>
-      </c>
-      <c r="J228" t="n">
-        <v>725700</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_cng/</t>
-        </is>
-      </c>
-      <c r="N228" t="n">
-        <v>725700</v>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cng/</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>488070</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11460,48 +11438,56 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>712700</v>
+        <v>634700</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_new/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>712700</t>
+          <t>634700</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta/</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>712700</v>
+        <v>634700</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_new/</t>
+          <t>https://tumen-car.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>712700</v>
+        <v>634700</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_new/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>926327</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11511,48 +11497,48 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>931700</v>
+        <v>876700</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta-sport/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_cross_new/</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>931700</t>
+          <t>876700</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/vesta_sport/</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>931700</v>
+        <v>876700</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/vesta-sport/</t>
+          <t>https://tumen-car.ru/cars/lada/vesta_cross_new/</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>931700</v>
+        <v>876700</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta-sport/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_cross_new/</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11562,30 +11548,56 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1583500</v>
+        <v>612700</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sportline/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>612700</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>612700</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>1583500</v>
+        <v>612700</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sportline/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>878150</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11595,48 +11607,56 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>496700</v>
+        <v>727700</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/xray/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>496700</t>
+          <t>727700</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/xray/</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>496700</v>
+        <v>727700</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/xray/</t>
+          <t>https://tumen-car.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>496700</v>
+        <v>727700</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/xray/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>996870</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11646,2125 +11666,2171 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>583700</v>
+        <v>844700</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/xray_cross/</t>
+          <t>https://tumen-car.ru/cars/lada/vesta_sw_cross_new/</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>583700</t>
+          <t>844700</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lada/xray_cross/</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>583700</v>
+        <v>844700</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/xray_cross/</t>
+          <t>https://tumen-car.ru/cars/lada/vesta_sw_cross_new/</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>583700</v>
+        <v>876700</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/xray_cross/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_sw_cross_new/</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>650300</v>
+        <v>789700</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/murman/lifan-murman-2</t>
+          <t>https://autotumen.ru/cars/lada/vesta_sw_new/</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>789700</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>650300</v>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/murman/lifan-murman-2</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>789700</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/vesta_sw_new/</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>789700</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/vesta_sw_new/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Vesta SW Sportline New</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>701300</v>
+        <v>1246977</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/myway/lifan-myway-2</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>701300</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lifan/myway/</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>701300</v>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/myway/lifan-myway-2</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>1246977</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Solano</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>401300</v>
+        <v>525700</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/solano/lifan-solano-2</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>401300</v>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/solano/lifan-solano-2</t>
+          <t>https://autotumen.ru/cars/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>525700</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>525700</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>525700</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>658147</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>401300</v>
+        <v>698957</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lifan/solano_ii/</t>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>725700</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lifan/solano_ii/</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>725700</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>725700</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>698957</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>420300</v>
+        <v>712700</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x50/lifan-x50-2/</t>
+          <t>https://autotumen.ru/cars/lada/vesta_new/</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>712700</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>420300</v>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x50/lifan-x50-2/</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>712700</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/vesta_new/</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>712700</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/vesta_new/</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>491300</v>
+        <v>931700</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x60/lifan-x60</t>
+          <t>https://autotumen.ru/cars/lada/vesta-sport/</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>931700</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>491300</v>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x60/lifan-x60</t>
+          <t>https://autocentr-72.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>931700</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/vesta-sport/</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>931700</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/vesta-sport/</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>770300</v>
+        <v>1154227</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x70/lifan-x70-2</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>770300</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/lifan/x70/</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>770300</v>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x70/lifan-x70-2</t>
+          <t>https://avtosrf5-11.ru</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1583500</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/vesta_sportline/</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>1154227</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1784930</v>
+        <v>496700</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/s6pro/livan-s6pro</t>
+          <t>https://autotumen.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>496700</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/livan/s6pro/</t>
+          <t>https://autocentr-72.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1911900</v>
+        <v>496700</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/livan/s6_pro/</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1784930</v>
-      </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/s6pro/livan-s6pro</t>
+          <t>https://tumen-car.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>1911900</v>
+        <v>496700</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/livan/s6_pro/</t>
+          <t>https://autotumen.ru/cars/lada/xray/</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>587657</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1189930</v>
+        <v>583700</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/x3-pro/livan</t>
+          <t>https://autotumen.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>583700</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
-      <c r="H242" t="n">
-        <v>1559900</v>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/livan/x3pro/</t>
+          <t>https://autocentr-72.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1389900</v>
+        <v>583700</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/livan/x3_pro/</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1189930</v>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/x3-pro/livan</t>
+          <t>https://tumen-car.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>1459000</v>
+        <v>583700</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/livan/x3_pro/</t>
+          <t>https://autotumen.ru/cars/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>663447</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1840930</v>
+        <v>650300</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/h6pro/novyj-resurs</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/murman/lifan-murman-2</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-      <c r="J243" t="n">
-        <v>1972900</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/livan/x6_pro/</t>
+          <t>https://autocentr-72.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="L243" t="n">
-        <v>1840930</v>
+        <v>650300</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/h6pro/novyj-resurs</t>
-        </is>
-      </c>
-      <c r="N243" t="n">
-        <v>1972900</v>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/livan/x6_pro/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/murman/lifan-murman-2</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1499000</v>
+        <v>701300</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/mg/5/</t>
-        </is>
-      </c>
-      <c r="J244" t="n">
-        <v>1499000</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/mg/5/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/myway/lifan-myway-2</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>701300</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>1588000</v>
+        <v>701300</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/novyj-resurs/novyj-resurs/</t>
-        </is>
-      </c>
-      <c r="N244" t="n">
-        <v>1499000</v>
-      </c>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/mg/5/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/myway/lifan-myway-2</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Solano</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>889000</v>
+        <v>401300</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/6/mg-6</t>
-        </is>
-      </c>
-      <c r="J245" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/mg/6/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/solano/lifan-solano-2</t>
         </is>
       </c>
       <c r="L245" t="n">
-        <v>889000</v>
+        <v>401300</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/6/mg-6</t>
-        </is>
-      </c>
-      <c r="N245" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/mg/6/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/solano/lifan-solano-2</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2009000</v>
+        <v>401300</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/mg/hs/</t>
-        </is>
-      </c>
-      <c r="J246" t="n">
-        <v>2009000</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/mg/hs/</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>2319000</v>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/novyj-resurs1/mg-hs</t>
-        </is>
-      </c>
-      <c r="N246" t="n">
-        <v>2009000</v>
-      </c>
-      <c r="O246" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/mg/hs/</t>
+          <t>https://autocentr-72.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>401300</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1589000</v>
+        <v>420300</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/mg/zs/</t>
-        </is>
-      </c>
-      <c r="J247" t="n">
-        <v>1589000</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/mg/zs/</t>
-        </is>
-      </c>
-      <c r="N247" t="n">
-        <v>1589000</v>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/mg/zs/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x50/lifan-x50-2/</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>420300</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>420300</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x50/lifan-x50-2/</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1493000</v>
+        <v>491300</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/mazda/6/</t>
-        </is>
-      </c>
-      <c r="J248" t="n">
-        <v>1493000</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/mazda/6/</t>
-        </is>
-      </c>
-      <c r="N248" t="n">
-        <v>1493000</v>
-      </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/mazda/6/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x60/lifan-x60</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>491300</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lifan/x60/</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>491300</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x60/lifan-x60</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1569000</v>
+        <v>770300</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/mazda/cx-5/</t>
-        </is>
-      </c>
-      <c r="J249" t="n">
-        <v>1569000</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/mazda/cx-5/</t>
-        </is>
-      </c>
-      <c r="N249" t="n">
-        <v>1569000</v>
-      </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/mazda/cx-5/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x70/lifan-x70-2</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>770300</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/lifan/x70/</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>770300</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/lifan/x70/lifan-x70-2</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>3295000</v>
+        <v>1784930</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/mazda/cx-9/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/s6pro/livan-s6pro</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>1784930</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>3295000</v>
+        <v>1911900</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/mazda/cx-9/</t>
+          <t>https://tumen-car.ru/cars/livan/s6_pro/</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1784930</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/s6pro/livan-s6pro</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>3295000</v>
+        <v>1911900</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/mazda/cx-9/</t>
+          <t>https://autotumen.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1280000</v>
+        <v>1189930</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/moskvich/3/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/x3-pro/livan</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1280000</t>
+          <t>1189930</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/moskvich/3/</t>
+          <t>https://autocentr-72.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>1559900</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/livan/x3pro/</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1280000</v>
+        <v>1389900</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/moskvich/3/</t>
+          <t>https://tumen-car.ru/cars/livan/x3_pro/</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1189930</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/x3-pro/livan</t>
         </is>
       </c>
       <c r="N251" t="n">
-        <v>1280000</v>
+        <v>1459000</v>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/moskvich/3/</t>
+          <t>https://autotumen.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2765000</v>
+        <v>1840930</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/moskvich/3e/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/h6pro/novyj-resurs</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2765000</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/moskvich/3e/</t>
+          <t>https://autocentr-72.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>1972900</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/livan/x6_pro/</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1840930</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/livan/h6pro/novyj-resurs</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>1972900</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1366000</v>
+        <v>1499000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/moskvich/6/</t>
+          <t>https://autotumen.ru/cars/mg/5/</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1366000</v>
+        <v>1499000</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/moskvich/6/</t>
+          <t>https://tumen-car.ru/cars/mg/5/</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1588000</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/novyj-resurs/novyj-resurs/</t>
         </is>
       </c>
       <c r="N253" t="n">
-        <v>1366000</v>
+        <v>1499000</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/moskvich/6/</t>
+          <t>https://autotumen.ru/cars/mg/5/</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2499000</v>
+        <v>889000</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>2499000</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/nissan/murano/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/6/mg-6</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>2499000</v>
+        <v>1799000</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/nissan/murano/</t>
+          <t>https://tumen-car.ru/cars/mg/6/</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>889000</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/6/mg-6</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>2499000</v>
+        <v>1799000</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/murano/</t>
+          <t>https://autotumen.ru/cars/mg/6/</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1390000</v>
+        <v>2009000</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/qashqai_new/</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>1390000</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/nissan/qashqai/</t>
+          <t>https://autotumen.ru/cars/mg/hs/</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>1390000</v>
+        <v>2009000</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/nissan/qashqai_new/</t>
+          <t>https://tumen-car.ru/cars/mg/hs/</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>2319000</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/novyj-resurs1/novyj-resurs1/mg-hs</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>1390000</v>
+        <v>2009000</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autotumen.ru/cars/mg/hs/</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>669000</v>
+        <v>1589000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>669000</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/nissan/terrano/</t>
+          <t>https://autotumen.ru/cars/mg/zs/</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>669000</v>
+        <v>1589000</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/nissan/terrano/</t>
+          <t>https://tumen-car.ru/cars/mg/zs/</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>669000</v>
+        <v>1589000</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/terrano/</t>
+          <t>https://autotumen.ru/cars/mg/zs/</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1149000</v>
+        <v>1493000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>1149000</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/nissan/x-trail/</t>
+          <t>https://autotumen.ru/cars/mazda/6/</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>1493000</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/mazda/6/</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>1493000</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/mazda/6/</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1149000</v>
+        <v>1569000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/x_trail/</t>
+          <t>https://autotumen.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1149000</v>
+        <v>1569000</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/nissan/x_trail/</t>
+          <t>https://tumen-car.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>1149000</v>
+        <v>1569000</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/x_trail/</t>
+          <t>https://autotumen.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1219900</v>
+        <v>3295000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/c5/omoda-c5-2/</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>1219900</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/omoda/c5/</t>
+          <t>https://autotumen.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1219900</v>
+        <v>3295000</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1219900</v>
-      </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/c5/omoda-c5-2/</t>
+          <t>https://tumen-car.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>1679900</v>
+        <v>3295000</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/omoda/c5/</t>
+          <t>https://autotumen.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1469900</v>
+        <v>1280000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/omoda/s5/</t>
+          <t>https://autotumen.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1280000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/omoda/s5/</t>
+          <t>https://autocentr-72.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1469900</v>
+        <v>1280000</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1469900</v>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/s5/omoda-s5-2</t>
+          <t>https://tumen-car.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>1469900</v>
+        <v>1280000</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/omoda/s5/</t>
+          <t>https://autotumen.ru/cars/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1869900</v>
+        <v>2765000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/omoda/s5_gt/</t>
-        </is>
-      </c>
-      <c r="J261" t="n">
-        <v>1869900</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/omoda/s5_gt/</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>2191930</v>
-      </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/s5-gt/omoda-s5-2-gt</t>
-        </is>
-      </c>
-      <c r="N261" t="n">
-        <v>1869900</v>
-      </c>
-      <c r="O261" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/omoda/s5_gt/</t>
+          <t>https://autocentr-72.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2765000</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2674000</v>
+        <v>1366000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/oting/paladin/</t>
+          <t>https://autotumen.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>2674000</v>
+        <v>1366000</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/oting/paladin/</t>
+          <t>https://tumen-car.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="N262" t="n">
-        <v>2674000</v>
+        <v>1366000</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/oting/paladin/</t>
+          <t>https://autotumen.ru/cars/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2008 New</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>2099000</v>
+        <v>2499000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/2008/</t>
+          <t>https://autotumen.ru/cars/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2499000</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>2099000</v>
+        <v>2499000</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/peugeot/2008/</t>
+          <t>https://tumen-car.ru/cars/nissan/murano/</t>
         </is>
       </c>
       <c r="N263" t="n">
-        <v>2099000</v>
+        <v>2499000</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/2008/</t>
+          <t>https://autotumen.ru/cars/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>2729000</v>
+        <v>1390000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/4008/</t>
+          <t>https://autotumen.ru/cars/nissan/qashqai_new/</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>1390000</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>2729000</v>
+        <v>1390000</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/peugeot/4008/</t>
+          <t>https://tumen-car.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="N264" t="n">
-        <v>2729000</v>
+        <v>1390000</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/4008/</t>
+          <t>https://autotumen.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>2939000</v>
+        <v>669000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/5008/</t>
+          <t>https://autotumen.ru/cars/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>669000</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>2939000</v>
+        <v>669000</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/peugeot/5008/</t>
+          <t>https://tumen-car.ru/cars/nissan/terrano/</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>2939000</v>
+        <v>669000</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/peugeot/5008/</t>
+          <t>https://autotumen.ru/cars/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>379000</v>
+        <v>1149000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/gentra/</t>
-        </is>
-      </c>
-      <c r="J266" t="n">
-        <v>379000</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/ravon/gentra/</t>
-        </is>
-      </c>
-      <c r="N266" t="n">
-        <v>379000</v>
-      </c>
-      <c r="O266" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/ravon/gentra/</t>
+          <t>https://autocentr-72.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>1149000</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>344000</v>
+        <v>1149000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>344000</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/ravon/nexia_r3/</t>
+          <t>https://autotumen.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>344000</v>
+        <v>1149000</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/ravon/nexia_r3/</t>
+          <t>https://tumen-car.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="N267" t="n">
-        <v>344000</v>
+        <v>1149000</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autotumen.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>334000</v>
+        <v>1219900</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r2/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/c5/omoda-c5-2/</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>334000</t>
+          <t>1219900</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/ravon/r2/</t>
+          <t>https://autocentr-72.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>334000</v>
+        <v>1219900</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/ravon/r2/</t>
+          <t>https://tumen-car.ru/cars/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1219900</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/c5/omoda-c5-2/</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>334000</v>
+        <v>1679900</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r2/</t>
+          <t>https://autotumen.ru/cars/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>394000</v>
+        <v>1469900</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r4/</t>
+          <t>https://autotumen.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/ravon/r4/</t>
+          <t>https://autocentr-72.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>394000</v>
+        <v>1469900</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/ravon/r4/</t>
+          <t>https://tumen-car.ru/cars/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1469900</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/s5/omoda-s5-2</t>
         </is>
       </c>
       <c r="N269" t="n">
-        <v>394000</v>
+        <v>1469900</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r4/</t>
+          <t>https://autotumen.ru/cars/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>938000</v>
+        <v>1869900</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>938000</t>
-        </is>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/renault/arkana/</t>
+          <t>https://autotumen.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>938000</v>
+        <v>1869900</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/arkana/</t>
+          <t>https://tumen-car.ru/cars/omoda/s5_gt/</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>2191930</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/omoda/s5-gt/omoda-s5-2-gt</t>
         </is>
       </c>
       <c r="N270" t="n">
-        <v>938000</v>
+        <v>1869900</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/arkana/</t>
+          <t>https://autotumen.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>646000</v>
+        <v>2674000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/duster/</t>
+          <t>https://autotumen.ru/cars/oting/paladin/</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>646000</v>
+        <v>2674000</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/duster/</t>
+          <t>https://tumen-car.ru/cars/oting/paladin/</t>
         </is>
       </c>
       <c r="N271" t="n">
-        <v>646000</v>
+        <v>2674000</v>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/duster/</t>
+          <t>https://autotumen.ru/cars/oting/paladin/</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>2008 New</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>646000</v>
+        <v>2099000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>646000</t>
-        </is>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/renault/duster/</t>
+          <t>https://autotumen.ru/cars/peugeot/2008/</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/peugeot/2008/</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/peugeot/2008/</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>896000</v>
+        <v>2729000</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>896000</t>
-        </is>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/renault/kaptur/</t>
+          <t>https://autotumen.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>896000</v>
+        <v>2729000</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/kaptur/</t>
+          <t>https://tumen-car.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>896000</v>
+        <v>2729000</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/kaptur/</t>
+          <t>https://autotumen.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>430000</v>
+        <v>2939000</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan/</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>430000</t>
-        </is>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/renault/logan/</t>
+          <t>https://autotumen.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>430000</v>
+        <v>2939000</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/logan/</t>
+          <t>https://tumen-car.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>430000</v>
+        <v>2939000</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan/</t>
+          <t>https://autotumen.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>536990</v>
+        <v>379000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>536990</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/renault/logan_stepway/</t>
+          <t>https://autotumen.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>536990</v>
+        <v>379000</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/logan_stepway/</t>
+          <t>https://tumen-car.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>536990</v>
+        <v>379000</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
+          <t>https://autotumen.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>924700</v>
+        <v>344000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>924700</t>
+          <t>344000</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://autocentr-72.ru/auto/ravon/nexia_r3/</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>344000</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/ravon/nexia_r3/</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>344000</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>431000</v>
+        <v>334000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero/</t>
+          <t>https://autotumen.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>334000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero/</t>
+          <t>https://autocentr-72.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>431000</v>
+        <v>334000</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/sandero/</t>
+          <t>https://tumen-car.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>431000</v>
+        <v>334000</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero/</t>
+          <t>https://autotumen.ru/cars/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>566990</v>
+        <v>394000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autotumen.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero_stepway/</t>
+          <t>https://autocentr-72.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>566990</v>
+        <v>394000</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/renault/sandero_stepway/</t>
+          <t>https://tumen-car.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>566990</v>
+        <v>394000</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autotumen.ru/cars/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -13774,1657 +13840,2074 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>975100</v>
+        <v>938000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autotumen.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>975100</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://autocentr-72.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>938000</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>938000</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1743000</v>
+        <v>646000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g01/</t>
+          <t>https://autotumen.ru/cars/renault/duster/</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1743000</v>
+        <v>646000</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/swm/g01/</t>
+          <t>https://tumen-car.ru/cars/renault/duster/</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>1743000</v>
+        <v>646000</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g01/</t>
+          <t>https://autotumen.ru/cars/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1955000</v>
+        <v>646000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g01f/</t>
-        </is>
-      </c>
-      <c r="J281" t="n">
-        <v>1955000</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/swm/g01f/</t>
-        </is>
-      </c>
-      <c r="N281" t="n">
-        <v>1955000</v>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/swm/g01f/</t>
+          <t>https://autocentr-72.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>646000</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1984000</v>
+        <v>896000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
+          <t>https://autotumen.ru/cars/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>896000</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1984000</v>
+        <v>896000</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/swm/g05_pro/</t>
+          <t>https://tumen-car.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>1984000</v>
+        <v>896000</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
+          <t>https://autotumen.ru/cars/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1066900</v>
+        <v>430000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/karoq/</t>
+          <t>https://autotumen.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>1066900</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/karoq/</t>
+          <t>https://autocentr-72.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1066900</v>
+        <v>430000</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/karoq/</t>
+          <t>https://tumen-car.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>1066900</v>
+        <v>430000</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/karoq/</t>
+          <t>https://autotumen.ru/cars/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1609500</v>
+        <v>536990</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
+          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>536990</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1609500</v>
+        <v>536990</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/kodiaq/</t>
+          <t>https://tumen-car.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>1609500</v>
+        <v>536990</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
+          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>2548000</v>
+        <v>924700</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>924700</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
+          <t>https://autocentr-72.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1214000</v>
+        <v>431000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/octavia/</t>
+          <t>https://autotumen.ru/cars/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>431000</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1214000</v>
+        <v>431000</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/octavia/</t>
+          <t>https://tumen-car.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>1214000</v>
+        <v>431000</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/octavia/</t>
+          <t>https://autotumen.ru/cars/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1214000</v>
+        <v>566990</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
+          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1214000</t>
+          <t>566990</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
+          <t>https://autocentr-72.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>566990</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>566990</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>570300</v>
+        <v>975100</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
+          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>975100</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="J288" t="n">
-        <v>570300</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="N288" t="n">
-        <v>827300</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/skoda/rapid/</t>
+          <t>https://autocentr-72.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1830000</v>
+        <v>1743000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>1830000</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/skoda/superb/</t>
+          <t>https://autotumen.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1830000</v>
+        <v>1743000</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/superb/</t>
+          <t>https://tumen-car.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="N289" t="n">
-        <v>1830000</v>
+        <v>1743000</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/superb/</t>
+          <t>https://autotumen.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>2671900</v>
+        <v>1955000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>2671900</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
+          <t>https://autotumen.ru/cars/swm/g01f/</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>1955000</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/swm/g01f/</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>1955000</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1892000</v>
+        <v>1984000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>1892000</t>
-        </is>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/solaris/hc/</t>
+          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1892000</v>
+        <v>1984000</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/solaris/hc/</t>
+          <t>https://tumen-car.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>1892000</v>
+        <v>1984000</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hc/</t>
+          <t>https://autotumen.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1396000</v>
+        <v>1066900</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hs/</t>
+          <t>https://autotumen.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1066900</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/solaris/hs/</t>
+          <t>https://autocentr-72.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1396000</v>
+        <v>1066900</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/solaris/hs/</t>
+          <t>https://tumen-car.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>1396000</v>
+        <v>1066900</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hs/</t>
+          <t>https://autotumen.ru/cars/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1459000</v>
+        <v>1609500</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>1459000</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/solaris/krs/</t>
+          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1459000</v>
+        <v>1609500</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/solaris/krs/</t>
+          <t>https://tumen-car.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="N293" t="n">
-        <v>1459000</v>
+        <v>1609500</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krs/</t>
+          <t>https://autotumen.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1576000</v>
+        <v>2548000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krx/</t>
+          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>2548000</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="J294" t="n">
-        <v>1576000</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="N294" t="n">
-        <v>1576000</v>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/solaris/krx/</t>
+          <t>https://autocentr-72.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2040000</v>
+        <v>1214000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>2040000</v>
-      </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
+          <t>https://autotumen.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2869300</v>
+        <v>1214000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
+          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>1214000</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="J296" t="n">
-        <v>3859000</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/tank/300/</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>2869300</v>
-      </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
-        </is>
-      </c>
-      <c r="N296" t="n">
-        <v>2900000</v>
-      </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/tank/300/</t>
+          <t>https://autocentr-72.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3999000</v>
+        <v>570300</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/tank/500/</t>
+          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>4409300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/tank/500/</t>
+          <t>https://autocentr-72.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>6059000</v>
+        <v>570300</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/tank/500/</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>4409300</v>
-      </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/500/tank-500</t>
+          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>3999000</v>
+        <v>827300</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/tank/500/</t>
+          <t>https://autotumen.ru/cars/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1789000</v>
+        <v>1830000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
+          <t>https://autotumen.ru/cars/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>1830000</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1789000</v>
+        <v>1830000</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/c-hr/</t>
+          <t>https://tumen-car.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>1789000</v>
+        <v>1830000</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
+          <t>https://autotumen.ru/cars/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1712500</v>
+        <v>2671900</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/camry/</t>
-        </is>
-      </c>
-      <c r="J299" t="n">
-        <v>1712500</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/toyota/camry/</t>
-        </is>
-      </c>
-      <c r="N299" t="n">
-        <v>1712500</v>
-      </c>
-      <c r="O299" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/toyota/camry/</t>
+          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2671900</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>3213000</v>
+        <v>1892000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
+          <t>https://autotumen.ru/cars/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>1892000</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3213000</v>
+        <v>1892000</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/new_camry/</t>
+          <t>https://tumen-car.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="N300" t="n">
-        <v>3213000</v>
+        <v>1892000</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
+          <t>https://autotumen.ru/cars/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1286000</v>
+        <v>1396000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/corolla/</t>
+          <t>https://autotumen.ru/cars/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>1396000</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1286000</v>
+        <v>1396000</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/corolla/</t>
+          <t>https://tumen-car.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="N301" t="n">
-        <v>1286000</v>
+        <v>1396000</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/corolla/</t>
+          <t>https://autotumen.ru/cars/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1859000</v>
+        <v>1459000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/rav4/</t>
+          <t>https://autotumen.ru/cars/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>1459000</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1859000</v>
+        <v>1459000</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/toyota/rav4/</t>
+          <t>https://tumen-car.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>1859000</v>
+        <v>1459000</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/toyota/rav4/</t>
+          <t>https://autotumen.ru/cars/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>976500</v>
+        <v>1576000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
+          <t>https://autotumen.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>1576000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
+          <t>https://autocentr-72.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>1576000</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>1576000</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>657000</v>
+        <v>2040000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>657000</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>2040000</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/soueast/dx8s/novyj-resurs</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>657000</v>
+        <v>2869300</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/uaz/patriot/</t>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2869300</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>657000</v>
+        <v>3859000</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/uaz/patriot/</t>
+          <t>https://tumen-car.ru/cars/tank/300/</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>2869300</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/300/tank-300</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>657000</v>
+        <v>2900000</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/uaz/patriot/</t>
+          <t>https://autotumen.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>696500</v>
+        <v>3999000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autotumen.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>696500</t>
+          <t>4409300</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autocentr-72.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>6059000</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/tank/500/</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>4409300</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/tank/500/tank-500</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>3999000</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>696500</v>
+        <v>1789000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/uaz/pikap/</t>
+          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>696500</v>
+        <v>1789000</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/uaz/pikap/</t>
+          <t>https://tumen-car.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>696500</v>
+        <v>1789000</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/uaz/pikap/</t>
+          <t>https://autotumen.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1070300</v>
+        <v>1712500</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>1070300</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/jetta/</t>
+          <t>https://autotumen.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1070300</v>
+        <v>1712500</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/volkswagen/jetta/</t>
+          <t>https://tumen-car.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>1070300</v>
+        <v>1712500</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
+          <t>https://autotumen.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1859200</v>
+        <v>3213000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>1859200</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
+          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1954000</v>
+        <v>3213000</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/volkswagen/passat/</t>
+          <t>https://tumen-car.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>1954000</v>
+        <v>3213000</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/passat/</t>
+          <t>https://autotumen.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>540300</v>
+        <v>1286000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>540300</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/polo/</t>
+          <t>https://autotumen.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>540300</v>
+        <v>1286000</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/volkswagen/polo/</t>
+          <t>https://tumen-car.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>540300</v>
+        <v>1286000</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
+          <t>https://autotumen.ru/cars/toyota/corolla/</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1980230</v>
+        <v>1859000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>1980230</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
+          <t>https://autotumen.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3558500</v>
+        <v>976500</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="J312" t="n">
-        <v>3558500</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="N312" t="n">
-        <v>3558500</v>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
+          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>976500</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1329900</v>
+        <v>657000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="J313" t="n">
-        <v>1329900</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="N313" t="n">
-        <v>1329900</v>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
+          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>657000</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1329900</v>
+        <v>657000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>1329900</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autotumen.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>657000</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>657000</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1750000</v>
+        <v>696500</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
-        </is>
-      </c>
-      <c r="N315" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
+          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>696500</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>835640</v>
+        <v>696500</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>835640</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>835640</v>
-      </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
+          <t>https://autotumen.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>696500</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>696500</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>1070300</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>1859200</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>1859200</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>1954000</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>1954000</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>540300</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>540300</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="J319" t="n">
+        <v>540300</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>540300</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1980230</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>1980230</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Teramont</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>3558500</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>3558500</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>3558500</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Tiguan</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="N322" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>1329900</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>XCite</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>X-Cross 7</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/xcite/x_cross_7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>835640</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>835640</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>835640</v>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/coupa/zotye-coupa-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D317" t="n">
+      <c r="D326" t="n">
         <v>734000</v>
       </c>
-      <c r="E317" t="inlineStr">
+      <c r="E326" t="inlineStr">
         <is>
           <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/t600/zotye-t600-2</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr">
+      <c r="F326" t="inlineStr">
         <is>
           <t>734000</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>https://autocentr-72.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="L317" t="n">
+      <c r="L326" t="n">
         <v>734000</v>
       </c>
-      <c r="M317" t="inlineStr">
+      <c r="M326" t="inlineStr">
         <is>
           <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/zotye/t600/zotye-t600-2</t>
         </is>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>393147</v>
+        <v>553260</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2215190</v>
+        <v>2135190</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3410000</v>
+        <v>3499900</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3329900</v>
+        <v>3219900</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2649900</v>
+        <v>2549900</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2974190</v>
+        <v>2924190</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2236990</v>
+        <v>2036990</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2368190</v>
+        <v>2268190</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>2289990</v>
+        <v>2163190</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1757990</v>
+        <v>1557990</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>3790190</v>
+        <v>3690190</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>3106190</v>
+        <v>2956190</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>2818190</v>
+        <v>2708190</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autocentr-72.ru/auto/haval/h5/</t>
+          <t>https://autocentr-72.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -6674,6 +6674,16 @@
           <t>https://autotumen.ru/cars/haval/new_h5/</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1757000</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/haval/h5/</t>
+        </is>
+      </c>
       <c r="J126" t="n">
         <v>1757000</v>
       </c>
@@ -8473,7 +8483,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1990000</v>
+        <v>2290000</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -10104,7 +10114,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>692067</v>
+        <v>761550</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -10128,7 +10138,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>692067</v>
+        <v>761550</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -10160,6 +10170,22 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
+      <c r="J200" t="n">
+        <v>1384500</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/lada/aura/</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>1394500</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/lada/aura/</t>
+        </is>
+      </c>
       <c r="P200" t="n">
         <v>1378470</v>
       </c>
@@ -10220,7 +10246,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>579230</v>
+        <v>605200</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -10820,7 +10846,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>766267</v>
+        <v>1071600</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10828,7 +10854,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>766267</v>
+        <v>1071600</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -11476,7 +11502,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>926327</v>
+        <v>933270</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -11772,7 +11798,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1246977</v>
+        <v>1295790</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11780,7 +11806,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1246977</v>
+        <v>1295790</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -12025,7 +12051,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1154227</v>
+        <v>1205690</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -12041,7 +12067,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1154227</v>
+        <v>1205690</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -817,8 +817,18 @@
           <t>https://tumen-car.ru/cars/belgee/x50/</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/belgee/x50/</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>1996190</v>
+        <v>2030190</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -866,8 +876,18 @@
           <t>https://autotumen.ru/cars/belgee/x70/</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1054000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://autocentr-72.ru/auto/belgee/x70/</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>2135190</v>
+        <v>2176190</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1008,7 +1028,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1400000</v>
+        <v>1320000</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1157,7 +1177,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2019900</v>
+        <v>2049900</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1283,7 +1303,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2309900</v>
+        <v>1979900</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1373,7 +1393,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3499900</v>
+        <v>2949900</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1656,11 +1676,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1809900</v>
+        <v>1739900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/eadoplus/</t>
+          <t>https://bazis-motors.ru/cars/changan/eado-plus/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1674,7 +1694,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1939900</v>
+        <v>1739900</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1741,7 +1761,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3459900</v>
+        <v>3489900</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1808,7 +1828,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2369900</v>
+        <v>2079900</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1875,7 +1895,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3219900</v>
+        <v>2769900</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1965,7 +1985,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2429900</v>
+        <v>1979900</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2006,11 +2026,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2349900</v>
+        <v>2289900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/uni-t/</t>
+          <t>https://bazis-motors.ru/cars/changan/uni-t/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2024,7 +2044,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2629900</v>
+        <v>2289900</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2091,7 +2111,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2549900</v>
+        <v>2319900</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2158,7 +2178,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2170000</v>
+        <v>2400000</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2301,7 +2321,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2000000</v>
+        <v>2050000</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2411,7 +2431,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1630000</v>
+        <v>1550000</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2698,7 +2718,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2300000</v>
+        <v>2450000</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3008,7 +3028,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2640000</v>
+        <v>2970000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4998,7 +5018,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2924190</v>
+        <v>2967190</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -5180,16 +5200,6 @@
           <t>https://china-avto-tumen.ru/katalog-avtomobiley163538/geely/novyj-resurs1/novyj-resurs</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>1349000</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>https://autocentr-72.ru/auto/geely/belgee_x50/</t>
-        </is>
-      </c>
       <c r="L94" t="n">
         <v>1349000</v>
       </c>
@@ -5265,7 +5275,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>2268190</v>
+        <v>2394190</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -5383,7 +5393,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>2163190</v>
+        <v>2199190</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -5440,7 +5450,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1557990</v>
+        <v>1583990</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -5710,7 +5720,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>3690190</v>
+        <v>3752190</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -5767,7 +5777,7 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>2956190</v>
+        <v>2967190</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -5867,7 +5877,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>2708190</v>
+        <v>2829190</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -6941,7 +6951,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>589000</v>
+        <v>935520</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6950,7 +6960,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>935520</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -7000,7 +7010,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>689000</v>
+        <v>959520</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -7009,7 +7019,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>959520</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -10127,6 +10137,14 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>https://autotumen.ru/cars/knewstar/001/</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>3463190</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/knewstar/001/</t>
         </is>
       </c>
       <c r="J199" t="n">

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>3197190</v>
+        <v>2997190</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>761550</v>
+        <v>789110</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>761550</v>
+        <v>789110</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>739900</v>
+        <v>1077000</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>789640</v>
+        <v>813490</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>789640</v>
+        <v>813490</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>768440</v>
+        <v>792290</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>768440</v>
+        <v>792290</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>690530</v>
+        <v>711730</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>690530</v>
+        <v>711730</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>711730</v>
+        <v>732930</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>711730</v>
+        <v>732930</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9416,15 +9416,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>520930</v>
+        <v>538300</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avtosrf5-11.ru</t>
+          <t>https://autotumen.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>520930</v>
+        <v>562270</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -515,11 +515,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3119000</v>
+        <v>2631930</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/baic/bj40/</t>
+          <t>https://autocentr-city.ru/auto/baic/bj40/</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -530,8 +530,10 @@
           <t>https://tumen-car.ru/cars/baic/bj40/</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>4350000</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2631930</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -564,11 +566,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1585000</v>
+        <v>1535030</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/baic/u5_plus/</t>
+          <t>https://autocentr-city.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -579,8 +581,10 @@
           <t>https://tumen-car.ru/cars/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>2045000</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1535030</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -617,7 +621,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/baic/x35/</t>
+          <t>https://autocentr-city.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -628,8 +632,10 @@
           <t>https://tumen-car.ru/cars/baic/x35/</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>2200000</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1470000</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,11 +668,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2080000</v>
+        <v>2065000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/baic/x55/</t>
+          <t>https://autocentr-city.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -677,8 +683,10 @@
           <t>https://tumen-car.ru/cars/baic/x55/</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>2950000</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2065000</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -760,7 +768,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2000190</v>
+        <v>1979990</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -775,8 +783,10 @@
           <t>https://tumen-car.ru/cars/belgee/x50/</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>2290990</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -817,7 +827,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2316190</v>
+        <v>2265990</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -832,8 +842,10 @@
           <t>https://tumen-car.ru/cars/belgee/x70/</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>2826190</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1054000</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -932,11 +944,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1299900</v>
+        <v>1129000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/alsvin/</t>
+          <t>https://autocentr-city.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -955,8 +967,10 @@
           <t>https://tumen-car.ru/cars/changan/alsvin/</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1750000</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1129000</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1038,7 +1052,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1799900</v>
+        <v>1899900</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1053,8 +1067,10 @@
           <t>https://tumen-car.ru/cars/changan/cs35plus_new/</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>2339900</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1289900</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1102,8 +1118,10 @@
           <t>https://tumen-car.ru/cars/changan/cs55/</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>2189900</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>910300</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1151,8 +1169,10 @@
           <t>https://tumen-car.ru/cars/changan/cs55plus/</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>2629900</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1949900</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1249,8 +1269,10 @@
           <t>https://tumen-car.ru/cars/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>2469900</v>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1330300</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1298,8 +1320,10 @@
           <t>https://tumen-car.ru/cars/changan/cs85coupe/</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>3709900</v>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1979900</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1332,11 +1356,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3409900</v>
+        <v>2300950</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/cs95/</t>
+          <t>https://autocentr-city.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1347,8 +1371,10 @@
           <t>https://tumen-car.ru/cars/changan/cs95/</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>4249900</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2300950</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1389,7 +1415,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3999900</v>
+        <v>3579900</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1438,7 +1464,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1989900</v>
+        <v>1919900</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1453,8 +1479,10 @@
           <t>https://tumen-car.ru/cars/changan/eadoplus/</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>2329900</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1809900</t>
+        </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1510,8 +1538,10 @@
           <t>https://tumen-car.ru/cars/changan/hunter_plus/</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>3429900</v>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2939900</t>
+        </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1544,11 +1574,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2119000</v>
+        <v>1757637</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/lamore/</t>
+          <t>https://autocentr-city.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1567,8 +1597,10 @@
           <t>https://tumen-car.ru/cars/changan/lamore/</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>2789900</v>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1757637</t>
+        </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1601,11 +1633,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2959900</v>
+        <v>1959900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/uni_k/</t>
+          <t>https://autocentr-city.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1624,8 +1656,10 @@
           <t>https://tumen-car.ru/cars/changan/uni_k/</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>3639900</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1959900</t>
+        </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1666,7 +1700,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2189900</v>
+        <v>2389900</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1730,8 +1764,10 @@
           <t>https://tumen-car.ru/cars/changan/uni-t/</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>2869900</v>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2349900</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1787,8 +1823,10 @@
           <t>https://tumen-car.ru/cars/changan/uni_v/</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>2859900</v>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1999900</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1829,7 +1867,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2400000</v>
+        <v>2260000</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1844,8 +1882,10 @@
           <t>https://tumen-car.ru/cars/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>2800000</v>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2379930</t>
+        </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1878,15 +1918,17 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>849900</v>
+        <v>479900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>849900</v>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>479900</t>
+        </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1919,7 +1961,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2050000</v>
+        <v>1790000</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1934,8 +1976,10 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_4/</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>2039900</v>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>526900</t>
+        </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1975,8 +2019,10 @@
           <t>https://autotumen.ru/cars/chery/new_tiggo_4/</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>2330000</v>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1080000</t>
+        </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2017,7 +2063,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1550000</v>
+        <v>1539000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2032,8 +2078,10 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_4_pro/</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>2120000</v>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>869900</t>
+        </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2066,15 +2114,17 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1129900</v>
+        <v>743900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1129900</v>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>743900</t>
+        </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2114,8 +2164,10 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_7/</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1229900</v>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>850300</t>
+        </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2163,8 +2215,10 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_7_pro/</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>2570000</v>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>820300</t>
+        </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2204,6 +2258,14 @@
           <t>https://autotumen.ru/cars/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
+      <c r="H36" t="n">
+        <v>2040000</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/chery/tiggo-7-pro-max-fl/</t>
+        </is>
+      </c>
       <c r="J36" t="n">
         <v>1169900</v>
       </c>
@@ -2212,8 +2274,10 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>2820000</v>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1169900</t>
+        </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2253,16 +2317,10 @@
           <t>https://autotumen.ru/cars/chery/new_tiggo_7_pro_max/</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/chery/tiggo-7-pro-max-fl/</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>2770000</v>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1939000</t>
+        </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2281,7 +2339,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2291,30 +2349,48 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Plug-In-Hybrid</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2669000</v>
+        <v>1389900</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/chery/tiggo-7-pro-plug-in-hybrid/</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>2669000</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/chery/tiggo-7-pro-plug-in-hybrid/</t>
+          <t>https://autotumen.ru/cars/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1389900</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1389900</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1389900</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2324,46 +2400,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 8 New</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1389900</v>
+        <v>1549900</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8/</t>
+          <t>https://autotumen.ru/cars/chery/new_tiggo_8/</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1389900</v>
+        <v>1549900</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/chery/tiggo_8/</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>2730000</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8/</t>
+          <t>https://tumen-car.ru/cars/chery/new_tiggo_8/</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1389900</v>
+        <v>1549900</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8/</t>
+          <t>https://autotumen.ru/cars/chery/new_tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2373,38 +2441,48 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tiggo 8 New</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1549900</v>
+        <v>1169900</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/new_tiggo_8/</t>
+          <t>https://autotumen.ru/cars/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1549900</v>
+        <v>1169900</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/chery/new_tiggo_8/</t>
+          <t>https://tumen-car.ru/cars/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1169900</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>1549900</v>
+        <v>1169900</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/new_tiggo_8/</t>
+          <t>https://autotumen.ru/cars/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2414,46 +2492,48 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1169900</v>
+        <v>1873400</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8_pro/</t>
+          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1169900</v>
+        <v>1880900</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/chery/tiggo_8_pro/</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>3430000</v>
+          <t>https://tumen-car.ru/cars/chery/tiggo_8_pro_max/</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1873400</t>
+        </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1169900</v>
+        <v>1880900</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8_pro/</t>
+          <t>https://autotumen.ru/cars/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2463,46 +2543,56 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1880900</v>
+        <v>2189900</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8_pro_max/</t>
+          <t>https://autotumen.ru/cars/chery/new_tiggo_8_pro_max/</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2390000</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/chery/chery-tiggo-8-pro-max-new/</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1880900</v>
+        <v>2189900</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/chery/tiggo_8_pro_max/</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>3851000</v>
+          <t>https://tumen-car.ru/cars/chery/new_tiggo_8_pro_max/</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2189900</t>
+        </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1880900</v>
+        <v>2189900</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8_pro_max/</t>
+          <t>https://autotumen.ru/cars/chery/new_tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2512,111 +2602,91 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 9</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2189900</v>
+        <v>2905000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/new_tiggo_8_pro_max/</t>
+          <t>https://autotumen.ru/cars/chery/tiggo_9/</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2970000</v>
+        <v>3839000</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/chery/chery-tiggo-8-pro-max-new/</t>
+          <t>https://bazis-motors.ru/cars/chery/tiggo-9/</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2189900</v>
+        <v>2905000</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/chery/new_tiggo_8_pro_max/</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>4160000</v>
+          <t>https://tumen-car.ru/cars/chery/tiggo_9/</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2905000</t>
+        </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://autocentr-city.ru/auto/chery/tiggo_9/</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2189900</v>
+        <v>2905000</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/new_tiggo_8_pro_max/</t>
+          <t>https://autotumen.ru/cars/chery/tiggo_9/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tiggo 9</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2905000</v>
+        <v>667730</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_9/</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4150000</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/chery/tiggo-9/</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>2905000</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/chery/tiggo_9/</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>4750000</v>
+          <t>https://autocentr-city.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>667730</t>
+        </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_9/</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>2905000</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_9/</t>
+          <t>https://autocentr-city.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2626,30 +2696,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>953900</v>
+        <v>616630</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>953900</v>
+          <t>https://autocentr-city.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>616630</t>
+        </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/cobalt/</t>
+          <t>https://autocentr-city.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2659,63 +2731,73 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>880900</v>
+        <v>665630</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>880900</v>
+          <t>https://autocentr-city.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>665630</t>
+        </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/nexia/</t>
+          <t>https://autocentr-city.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Citroen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>C5 Aircross</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>950900</v>
+        <v>2589000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>950900</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/spark/</t>
+          <t>https://autotumen.ru/cars/citroen/c5_aircross/</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>2589000</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/citroen/c5_aircross/</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>2589000</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/citroen/c5_aircross/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2725,79 +2807,79 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>C5 Aircross</t>
+          <t>C5 X</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2589000</v>
+        <v>3009000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/citroen/c5_aircross/</t>
+          <t>https://autotumen.ru/cars/citroen/c5_x/</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>2589000</v>
+        <v>3009000</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/citroen/c5_aircross/</t>
+          <t>https://tumen-car.ru/cars/citroen/c5_x/</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2589000</v>
+        <v>3009000</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/citroen/c5_aircross/</t>
+          <t>https://autotumen.ru/cars/citroen/c5_x/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Citroen</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C5 X</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3009000</v>
+        <v>710000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/citroen/c5_x/</t>
+          <t>https://autotumen.ru/cars/dongfeng/ax7/</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>3009000</v>
+        <v>710000</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/citroen/c5_x/</t>
+          <t>https://tumen-car.ru/cars/dongfeng/ax7/</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3009000</v>
+        <v>710000</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/citroen/c5_x/</t>
+          <t>https://autotumen.ru/cars/dongfeng/ax7/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2807,38 +2889,38 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>710000</v>
+        <v>1820000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/ax7/</t>
+          <t>https://autotumen.ru/cars/dongfeng/df6/</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>710000</v>
+        <v>1820000</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/dongfeng/ax7/</t>
+          <t>https://tumen-car.ru/cars/dongfeng/df6/</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>710000</v>
+        <v>1820000</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/ax7/</t>
+          <t>https://autotumen.ru/cars/dongfeng/df6/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2848,38 +2930,38 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>DFSK 500</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1820000</v>
+        <v>1479000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/df6/</t>
+          <t>https://autotumen.ru/cars/dongfeng/dfsk_500/</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1820000</v>
+        <v>1479000</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/dongfeng/df6/</t>
+          <t>https://tumen-car.ru/cars/dongfeng/dfsk_500/</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1820000</v>
+        <v>1479000</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/df6/</t>
+          <t>https://autotumen.ru/cars/dongfeng/dfsk_500/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2889,38 +2971,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DFSK 500</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1479000</v>
+        <v>1670000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/dfsk_500/</t>
+          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix5/</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1479000</v>
+        <v>1670000</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/dongfeng/dfsk_500/</t>
+          <t>https://tumen-car.ru/cars/dongfeng/dfsk_ix5/</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>1479000</v>
+        <v>1670000</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/dfsk_500/</t>
+          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix5/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2930,38 +3012,38 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1670000</v>
+        <v>2690000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix5/</t>
+          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix7/</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1670000</v>
+        <v>2690000</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/dongfeng/dfsk_ix5/</t>
+          <t>https://tumen-car.ru/cars/dongfeng/dfsk_ix7/</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>1670000</v>
+        <v>2690000</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix5/</t>
+          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix7/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2971,38 +3053,38 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>SK 580</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2690000</v>
+        <v>1579000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix7/</t>
+          <t>https://autotumen.ru/cars/dongfeng/580/</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2690000</v>
+        <v>1579000</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/dongfeng/dfsk_ix7/</t>
+          <t>https://tumen-car.ru/cars/dongfeng/580/</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2690000</v>
+        <v>1579000</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/dfsk_ix7/</t>
+          <t>https://autotumen.ru/cars/dongfeng/580/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3012,79 +3094,89 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SK 580</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1579000</v>
+        <v>1479000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/580/</t>
+          <t>https://autotumen.ru/cars/dongfeng/shine_max/</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1579000</v>
+        <v>1479000</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/dongfeng/580/</t>
+          <t>https://tumen-car.ru/cars/dongfeng/shine_max/</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>1579000</v>
+        <v>1479000</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/580/</t>
+          <t>https://autotumen.ru/cars/dongfeng/shine_max/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1479000</v>
+        <v>1469900</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/shine_max/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/lx/</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1479000</v>
+        <v>1469900</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/dongfeng/shine_max/</t>
+          <t>https://tumen-car.ru/cars/cheryexeed/lx/</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1469900</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1479000</v>
+        <v>1469900</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/dongfeng/shine_max/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3094,46 +3186,48 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1469900</v>
+        <v>2939000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/lx/</t>
+          <t>https://autocentr-city.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1469900</v>
+        <v>2939000</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/cheryexeed/lx/</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>3060000</v>
+          <t>https://tumen-car.ru/cars/cheryexeed/rx/</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2939000</t>
+        </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/exeed/lx/</t>
+          <t>https://autocentr-city.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1469900</v>
+        <v>3149000</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/lx/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3143,46 +3237,48 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2939000</v>
+        <v>1746000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/cheryexeed/rx/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/txl/</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2939000</v>
+        <v>1746000</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/cheryexeed/rx/</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>5150000</v>
+          <t>https://tumen-car.ru/cars/cheryexeed/txl/</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2099900</t>
+        </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/exeed/rx/</t>
+          <t>https://autocentr-city.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3149000</v>
+        <v>1746000</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/rx/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3192,46 +3288,38 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1746000</v>
+        <v>2099900</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/txl/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/txl_new/</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1746000</v>
+        <v>2099900</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/cheryexeed/txl/</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>4260000</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/exeed/txl/</t>
+          <t>https://tumen-car.ru/cars/cheryexeed/txl_new/</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1746000</v>
+        <v>2099900</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/txl/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/txl_new/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3241,38 +3329,48 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2099900</v>
+        <v>3009900</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/txl_new/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/vx/</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2099900</v>
+        <v>3009900</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/cheryexeed/txl_new/</t>
+          <t>https://tumen-car.ru/cars/cheryexeed/vx/</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>3009900</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2099900</v>
+        <v>3009900</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/txl_new/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3282,87 +3380,89 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>VX New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3009900</v>
+        <v>3116000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/vx/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/vx_new/</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3009900</v>
+        <v>3116000</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/cheryexeed/vx/</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/exeed/vx/</t>
+          <t>https://tumen-car.ru/cars/cheryexeed/vx_new/</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3009900</v>
+        <v>3116000</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/vx/</t>
+          <t>https://autotumen.ru/cars/cheryexeed/vx_new/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>VX New</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3116000</v>
+        <v>1838000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/vx_new/</t>
+          <t>https://autocentr-city.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>3116000</v>
+        <v>1982000</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/cheryexeed/vx_new/</t>
+          <t>https://tumen-car.ru/cars/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1838000</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3116000</v>
+        <v>1982000</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/vx_new/</t>
+          <t>https://autotumen.ru/cars/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3372,46 +3472,48 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1982000</v>
+        <v>1849000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_b70/</t>
+          <t>https://autocentr-city.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1982000</v>
+        <v>1949000</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/faw/bestune_b70/</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>2450000</v>
+          <t>https://tumen-car.ru/cars/faw/bestune_t55/</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1849000</t>
+        </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_b70/</t>
+          <t>https://autocentr-city.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1982000</v>
+        <v>1949000</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_b70/</t>
+          <t>https://autotumen.ru/cars/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3421,46 +3523,48 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1949000</v>
+        <v>1359000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_t55/</t>
+          <t>https://autocentr-city.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1949000</v>
+        <v>2306000</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/faw/bestune_t55/</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>2411000</v>
+          <t>https://tumen-car.ru/cars/faw/bestune_t77/</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1359000</t>
+        </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_t55/</t>
+          <t>https://autocentr-city.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1949000</v>
+        <v>2306000</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_t55/</t>
+          <t>https://autotumen.ru/cars/faw/bestune_t77/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3470,46 +3574,48 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2306000</v>
+        <v>2065000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_t77/</t>
+          <t>https://autocentr-city.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2306000</v>
+        <v>2475000</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/faw/bestune_t77/</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>2864000</v>
+          <t>https://tumen-car.ru/cars/faw/bestune_t99/</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>2065000</t>
+        </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/besturn_t77/</t>
+          <t>https://autocentr-city.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2306000</v>
+        <v>2475000</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_t77/</t>
+          <t>https://autotumen.ru/cars/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3519,46 +3625,38 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Besturn X40</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2475000</v>
+        <v>957000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_t99/</t>
+          <t>https://autotumen.ru/cars/faw/x40/</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2475000</v>
+        <v>957000</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/faw/bestune_t99/</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>3073000</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_t99/</t>
+          <t>https://tumen-car.ru/cars/faw/x40/</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2475000</v>
+        <v>957000</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/bestune_t99/</t>
+          <t>https://autotumen.ru/cars/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3568,38 +3666,38 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Besturn X40</t>
+          <t>Besturn X80</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>957000</v>
+        <v>1158000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/x40/</t>
+          <t>https://autotumen.ru/cars/faw/besturn_x80/</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>957000</v>
+        <v>1158000</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/faw/x40/</t>
+          <t>https://tumen-car.ru/cars/faw/besturn_x80/</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>957000</v>
+        <v>1158000</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/x40/</t>
+          <t>https://autotumen.ru/cars/faw/besturn_x80/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3609,38 +3707,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Besturn X80</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1158000</v>
+        <v>650000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/faw/besturn_x80/</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>1158000</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/faw/besturn_x80/</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>1158000</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/faw/besturn_x80/</t>
+          <t>https://autocentr-city.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>650000</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3650,63 +3742,73 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1392000</v>
+        <v>879000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1392000</v>
+          <t>https://autocentr-city.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>879000</t>
+        </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/x40/</t>
+          <t>https://autocentr-city.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1508000</v>
+        <v>1919000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1508000</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/x80/</t>
+          <t>https://autotumen.ru/cars/gac/gn8/</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1919000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://tumen-car.ru/cars/gac/gn8/</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>1919000</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>https://autotumen.ru/cars/gac/gn8/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3716,38 +3818,48 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1919000</v>
+        <v>1725000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gn8/</t>
+          <t>https://autotumen.ru/cars/gac/gs3/</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1919000</v>
+        <v>1725000</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/gac/gn8/</t>
+          <t>https://tumen-car.ru/cars/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1725000</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1919000</v>
+        <v>1725000</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gn8/</t>
+          <t>https://autotumen.ru/cars/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3757,46 +3869,48 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1725000</v>
+        <v>1020000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs3/</t>
+          <t>https://autotumen.ru/cars/gac/gs5/</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1725000</v>
+        <v>1020000</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/gac/gs3/</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>2299000</v>
+          <t>https://tumen-car.ru/cars/gac/gs5/</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1020000</t>
+        </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/gac/gs3/</t>
+          <t>https://autocentr-city.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1725000</v>
+        <v>1020000</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs3/</t>
+          <t>https://autotumen.ru/cars/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3806,46 +3920,48 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1020000</v>
+        <v>1408000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs5/</t>
+          <t>https://autotumen.ru/cars/gac/gs8/</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1020000</v>
+        <v>1408000</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/gac/gs5/</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>2249000</v>
+          <t>https://tumen-car.ru/cars/gac/gs8/</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2449300</t>
+        </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/gac/gs5/</t>
+          <t>https://autocentr-city.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1020000</v>
+        <v>1408000</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs5/</t>
+          <t>https://autotumen.ru/cars/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3855,46 +3971,38 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS8 New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1408000</v>
+        <v>2730000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs8/</t>
+          <t>https://autotumen.ru/cars/gac/gs8_new/</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1408000</v>
+        <v>2730000</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/gac/gs8/</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>3899000</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/gac/gs8/</t>
+          <t>https://tumen-car.ru/cars/gac/gs8_new/</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1408000</v>
+        <v>2730000</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs8/</t>
+          <t>https://autotumen.ru/cars/gac/gs8_new/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3904,79 +4012,97 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GS8 New</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2730000</v>
+        <v>4124999</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs8_new/</t>
+          <t>https://autotumen.ru/cars/gac/m8/</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2730000</v>
+        <v>4124999</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/gac/gs8_new/</t>
+          <t>https://tumen-car.ru/cars/gac/m8/</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2730000</v>
+        <v>4124999</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs8_new/</t>
+          <t>https://autotumen.ru/cars/gac/m8/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4124999</v>
+        <v>1549290</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/m8/</t>
+          <t>https://autotumen.ru/cars/geely/atlas/</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3092990</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/geely/atlas/</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>4124999</v>
+        <v>1549290</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/gac/m8/</t>
+          <t>https://tumen-car.ru/cars/geely/atlas/</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1549290</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4124999</v>
+        <v>1549290</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/m8/</t>
+          <t>https://autotumen.ru/cars/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3986,54 +4112,48 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1549290</v>
+        <v>1957990</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas/</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>3167190</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/geely/atlas/</t>
+          <t>https://autotumen.ru/cars/geely/atlas_new/</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1549290</v>
+        <v>1957990</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/geely/atlas/</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>2228990</v>
+          <t>https://tumen-car.ru/cars/geely/atlas_new/</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1957990</t>
+        </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/geely/atlas_1/</t>
+          <t>https://autocentr-city.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1549290</v>
+        <v>1957990</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas/</t>
+          <t>https://autotumen.ru/cars/geely/atlas_new/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4043,46 +4163,56 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1957990</v>
+        <v>1618990</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas_new/</t>
+          <t>https://autotumen.ru/cars/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2226990</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/geely/geely-atlas-pro/</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1957990</v>
+        <v>1618990</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/geely/atlas_new/</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>3194990</v>
+          <t>https://tumen-car.ru/cars/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1618990</t>
+        </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/geely/atlas/</t>
+          <t>https://autocentr-city.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1957990</v>
+        <v>1618990</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas_new/</t>
+          <t>https://autotumen.ru/cars/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4092,54 +4222,38 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Boyue</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1618990</v>
+        <v>1794000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas_pro/</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>2226990</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/geely/geely-atlas-pro/</t>
+          <t>https://autotumen.ru/cars/geely/boyue/</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1618990</v>
+        <v>1794000</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/geely/atlas_pro/</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>2763990</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/atlas_pro/</t>
+          <t>https://tumen-car.ru/cars/geely/boyue/</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1618990</v>
+        <v>1794000</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas_pro/</t>
+          <t>https://autotumen.ru/cars/geely/boyue/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4149,38 +4263,46 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Boyue</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1794000</v>
+        <v>1733200</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/boyue/</t>
+          <t>https://autotumen.ru/cars/geely/cityray/</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2499990</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/geely/cityray/</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1794000</v>
+        <v>1733200</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/geely/boyue/</t>
+          <t>https://tumen-car.ru/cars/geely/cityray/</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>1794000</v>
+        <v>1733200</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/boyue/</t>
+          <t>https://autotumen.ru/cars/geely/cityray/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4190,46 +4312,48 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1733200</v>
+        <v>772300</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/cityray/</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>2524190</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/geely/cityray/</t>
+          <t>https://autotumen.ru/cars/geely/coolray/</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1733200</v>
+        <v>772300</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/geely/cityray/</t>
+          <t>https://tumen-car.ru/cars/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>772300</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://autocentr-city.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1733200</v>
+        <v>772300</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/cityray/</t>
+          <t>https://autotumen.ru/cars/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4239,46 +4363,56 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>772300</v>
+        <v>1115000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/coolray/</t>
+          <t>https://autotumen.ru/cars/geely/coolray_new/</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2314990</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://bazis-motors.ru/cars/geely/new-coolray/</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>772300</v>
+        <v>1115000</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>2344990</v>
+          <t>https://tumen-car.ru/cars/geely/coolray_new/</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1115000</t>
+        </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/geely/coolray_1/</t>
+          <t>https://autocentr-city.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>772300</v>
+        <v>1115000</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/coolray/</t>
+          <t>https://autotumen.ru/cars/geely/coolray_new/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4288,47 +4422,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>EX5</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1115000</v>
+        <v>3749990</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/coolray_new/</t>
+          <t>https://bazis-motors.ru/cars/geely/ex5/</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2409190</v>
+        <v>3749990</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/geely/new-coolray/</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>1115000</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>https://tumen-car.ru/cars/geely/coolray_new/</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>2609990</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>1115000</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>https://autotumen.ru/cars/geely/coolray_new/</t>
+          <t>https://bazis-motors.ru/cars/geely/ex5/</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4467,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1803990</v>
+        <v>1819990</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4398,15 +4508,17 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2009990</v>
+        <v>1040000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/geely/emgrand/</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>2009990</v>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1040000</t>
+        </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -4431,15 +4543,17 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1209990</v>
+        <v>937000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1209990</v>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>937000</t>
+        </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -4479,8 +4593,10 @@
           <t>https://tumen-car.ru/cars/geely/gs/</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1099990</v>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>699890</t>
+        </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -4521,7 +4637,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3752190</v>
+        <v>3709990</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4536,8 +4652,10 @@
           <t>https://tumen-car.ru/cars/geely/monjaro/</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>4694990</v>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2159990</t>
+        </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -4652,11 +4770,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2067000</v>
+        <v>1854000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/okavango_new/</t>
+          <t>https://autocentr-city.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -4667,8 +4785,10 @@
           <t>https://tumen-car.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>3449990</v>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1854000</t>
+        </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -4832,11 +4952,11 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2359990</v>
+        <v>1983990</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/tugella_new/</t>
+          <t>https://autocentr-city.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -4847,8 +4967,10 @@
           <t>https://tumen-car.ru/cars/geely/tugella_new/</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>3959990</v>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1983990</t>
+        </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -4962,8 +5084,10 @@
           <t>https://tumen-car.ru/cars/haval/dargo/</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>3049000</v>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1690000</t>
+        </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -5011,8 +5135,10 @@
           <t>https://tumen-car.ru/cars/haval/dargo_x/</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>3349000</v>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1780000</t>
+        </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -5101,8 +5227,10 @@
           <t>https://tumen-car.ru/cars/haval/new_f7/</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>2399000</v>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>1150000</t>
+        </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -5191,8 +5319,10 @@
           <t>https://tumen-car.ru/cars/haval/new_f7x/</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>2449000</v>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1310000</t>
+        </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -5240,8 +5370,10 @@
           <t>https://tumen-car.ru/cars/haval/h3/</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>2649000</v>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1980000</t>
+        </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -5274,15 +5406,17 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1529000</v>
+        <v>879000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/haval/h5_i/</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1529000</v>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>879000</t>
+        </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -5322,8 +5456,10 @@
           <t>https://tumen-car.ru/cars/haval/new_h5/</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>3699000</v>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>1757000</t>
+        </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -5404,8 +5540,10 @@
           <t>https://tumen-car.ru/cars/haval/h9/</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>4099000</v>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2007000</t>
+        </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -5494,8 +5632,10 @@
           <t>https://tumen-car.ru/cars/haval/jolion/</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1949000</v>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>935520</t>
+        </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -5543,8 +5683,10 @@
           <t>https://tumen-car.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1999000</v>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>959520</t>
+        </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -5592,8 +5734,10 @@
           <t>https://tumen-car.ru/cars/haval/m6/</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>2179000</v>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1509000</t>
+        </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -5682,8 +5826,10 @@
           <t>https://tumen-car.ru/cars/hyundai/creta/</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1859000</v>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>699300</t>
+        </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -5772,8 +5918,10 @@
           <t>https://tumen-car.ru/cars/hyundai/elantra_new/</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>2149000</v>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>1505000</t>
+        </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -6026,8 +6174,10 @@
           <t>https://tumen-car.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1408000</v>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>503000</t>
+        </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -6075,8 +6225,10 @@
           <t>https://tumen-car.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>2769000</v>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>1130200</t>
+        </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -6232,15 +6384,17 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2749000</v>
+        <v>1499000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>2749000</v>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -6265,11 +6419,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>749000</v>
+        <v>740000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jac/j7/</t>
+          <t>https://autocentr-city.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -6288,8 +6442,10 @@
           <t>https://tumen-car.ru/cars/jac/j7/</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>2129000</v>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>740000</t>
+        </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -6435,8 +6591,10 @@
           <t>https://tumen-car.ru/cars/jac/s3/</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1399000</v>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>809000</t>
+        </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -6484,8 +6642,10 @@
           <t>https://tumen-car.ru/cars/jac/s7/</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1779000</v>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>989000</t>
+        </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -6625,11 +6785,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2249900</v>
+        <v>2016000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jaecoo/j7/</t>
+          <t>https://autocentr-city.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="J136" t="n">
@@ -6640,8 +6800,10 @@
           <t>https://tumen-car.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>3339900</v>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>2016000</t>
+        </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -6689,8 +6851,10 @@
           <t>https://tumen-car.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>4449000</v>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>3079000</t>
+        </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -6746,8 +6910,10 @@
           <t>https://tumen-car.ru/cars/jetour/dashing/</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>2489900</v>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>1849900</t>
+        </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -6780,11 +6946,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2664000</v>
+        <v>2359000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jetour/t2/</t>
+          <t>https://autocentr-city.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -6803,8 +6969,10 @@
           <t>https://tumen-car.ru/cars/jetour/t2/</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>3759000</v>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2359000</t>
+        </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -6901,8 +7069,10 @@
           <t>https://tumen-car.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>2999900</v>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>1809900</t>
+        </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -6935,11 +7105,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2759900</v>
+        <v>2274930</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jetour/x90_plus/</t>
+          <t>https://autocentr-city.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -6958,8 +7128,10 @@
           <t>https://tumen-car.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>3399900</v>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2274930</t>
+        </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
@@ -6992,11 +7164,11 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1858000</v>
+        <v>1200000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/jetta/va3/</t>
+          <t>https://autocentr-city.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -7007,8 +7179,10 @@
           <t>https://bazis-motors.ru/cars/jetta/va3/</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>2054000</v>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>1200000</t>
+        </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -7033,11 +7207,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2258000</v>
+        <v>1500000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/jetta/vs5/</t>
+          <t>https://autocentr-city.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -7048,8 +7222,10 @@
           <t>https://bazis-motors.ru/cars/jetta/vs5/</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>2462000</v>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>1500000</t>
+        </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -7074,11 +7250,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2879000</v>
+        <v>1659000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/jetta/vs7/</t>
+          <t>https://autocentr-city.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -7089,8 +7265,10 @@
           <t>https://bazis-motors.ru/cars/jetta/vs7/</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>2933000</v>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>1659000</t>
+        </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -7115,11 +7293,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1349000</v>
+        <v>1269000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kaiyi/e5/</t>
+          <t>https://autocentr-city.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="J146" t="n">
@@ -7130,8 +7308,10 @@
           <t>https://tumen-car.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>2195000</v>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>1269000</t>
+        </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -7164,11 +7344,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2117650</v>
+        <v>1566600</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kaiyi/x3/</t>
+          <t>https://autocentr-city.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="J147" t="n">
@@ -7179,8 +7359,10 @@
           <t>https://tumen-car.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>2238000</v>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>1566600</t>
+        </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -7213,11 +7395,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2490000</v>
+        <v>1760430</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autocentr-city.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="J148" t="n">
@@ -7228,8 +7410,10 @@
           <t>https://tumen-car.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>2514900</v>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>1760430</t>
+        </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -7262,11 +7446,11 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2298900</v>
+        <v>1726900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autocentr-city.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="J149" t="n">
@@ -7277,8 +7461,10 @@
           <t>https://tumen-car.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>2997900</v>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>1726900</t>
+        </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -7367,8 +7553,10 @@
           <t>https://tumen-car.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>2244900</v>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>860300</t>
+        </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
@@ -7416,8 +7604,10 @@
           <t>https://tumen-car.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>2314900</v>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>870300</t>
+        </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -7491,15 +7681,17 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2054900</v>
+        <v>870300</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/kia/cerato/</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>2054900</v>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>870300</t>
+        </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -7539,8 +7731,10 @@
           <t>https://tumen-car.ru/cars/kia/k5/</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>2734900</v>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>1070300</t>
+        </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -7655,15 +7849,17 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1334900</v>
+        <v>550745</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/kia/picanto/</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1334900</v>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>550745</t>
+        </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -7688,15 +7884,17 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1869900</v>
+        <v>1308930</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/kia/proceed/</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1869900</v>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>1308930</t>
+        </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
@@ -7762,15 +7960,17 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1434900</v>
+        <v>510300</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/kia/rio/</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1434900</v>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -7810,8 +8010,10 @@
           <t>https://tumen-car.ru/cars/kia/rio-x/</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1574900</v>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>590300</t>
+        </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
@@ -7859,8 +8061,10 @@
           <t>https://tumen-car.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>939900</v>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>557000</t>
+        </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -7908,8 +8112,10 @@
           <t>https://tumen-car.ru/cars/kia/seltos/</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1959900</v>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>970300</t>
+        </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -8080,8 +8286,10 @@
           <t>https://tumen-car.ru/cars/kia/soul/</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1829900</v>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>571200</t>
+        </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -8155,15 +8363,17 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2849900</v>
+        <v>1949900</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/kia/sportage/</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>2849900</v>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>1949900</t>
+        </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -8285,8 +8495,10 @@
           <t>https://tumen-car.ru/cars/kia/xceed/</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>2634900</v>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>1004900</t>
+        </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -8327,7 +8539,7 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>3723190</v>
+        <v>3572990</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -8489,8 +8701,10 @@
           <t>https://tumen-car.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>945900</v>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>437700</t>
+        </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -8587,8 +8801,10 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>778500</v>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>544950</t>
+        </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -8636,8 +8852,10 @@
           <t>https://tumen-car.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1077000</v>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>343700</t>
+        </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
@@ -8670,11 +8888,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>398447</v>
+        <v>321700</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avtosrf5-11.ru</t>
+          <t>https://autocentr-city.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -8685,8 +8903,10 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>699900</v>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>321700</t>
+        </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
@@ -8734,8 +8954,10 @@
           <t>https://tumen-car.ru/cars/lada/granta_sd_drive_active/</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1034900</v>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>387900</t>
+        </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
@@ -9021,8 +9243,10 @@
           <t>https://tumen-car.ru/cars/lada/granta_sw/</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>719300</v>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>351300</t>
+        </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
@@ -9125,7 +9349,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/largus_cross_new_5/</t>
+          <t>https://autocentr-city.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="J192" t="n">
@@ -9136,8 +9360,10 @@
           <t>https://tumen-car.ru/cars/lada/largus_cross_new_5/</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1443900</v>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>695300</t>
+        </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -9226,8 +9452,10 @@
           <t>https://tumen-car.ru/cars/lada/largus_new_5/</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1300900</v>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>555300</t>
+        </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
@@ -9342,15 +9570,17 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1301900</v>
+        <v>444300</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1301900</v>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>444300</t>
+        </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -9390,8 +9620,10 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>738000</v>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
@@ -9439,8 +9671,10 @@
           <t>https://tumen-car.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>829900</v>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>538300</t>
+        </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
@@ -9496,8 +9730,10 @@
           <t>https://tumen-car.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>918900</v>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>560300</t>
+        </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -9545,8 +9781,10 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>824000</v>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>576800</t>
+        </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -9594,8 +9832,10 @@
           <t>https://tumen-car.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1198900</v>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>875000</t>
+        </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
@@ -9717,8 +9957,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1269900</v>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>634700</t>
+        </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -9766,8 +10008,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_cross_new/</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1733900</v>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>876700</t>
+        </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -9823,8 +10067,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1213900</v>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>612700</t>
+        </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
@@ -9880,8 +10126,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1328900</v>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>727700</t>
+        </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
@@ -9918,7 +10166,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/lada/vesta_sw_cross_new/</t>
+          <t>https://autocentr-city.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="J209" t="n">
@@ -9929,8 +10177,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw_cross_new/</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1511900</v>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>844700</t>
+        </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
@@ -9978,8 +10228,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw_new/</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1329900</v>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>789700</t>
+        </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
@@ -10068,8 +10320,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta/</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1121900</v>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>525700</t>
+        </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
@@ -10125,8 +10379,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_cng/</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1316900</v>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>725700</t>
+        </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
@@ -10174,8 +10430,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta_new/</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1239900</v>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>712700</t>
+        </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
@@ -10223,8 +10481,10 @@
           <t>https://tumen-car.ru/cars/lada/vesta-sport/</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1597900</v>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>931700</t>
+        </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
@@ -10321,8 +10581,10 @@
           <t>https://tumen-car.ru/cars/lada/xray/</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1106900</v>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>496700</t>
+        </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
@@ -10378,8 +10640,10 @@
           <t>https://tumen-car.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1249900</v>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>583700</t>
+        </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -10412,15 +10676,17 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1019900</v>
+        <v>650300</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/lifan/murman/</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1019900</v>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>650300</t>
+        </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
@@ -10445,15 +10711,17 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>899900</v>
+        <v>701300</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/lifan/myway/</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>899900</v>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>701300</t>
+        </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
@@ -10478,15 +10746,17 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>709900</v>
+        <v>401300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>709900</v>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>401300</t>
+        </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
@@ -10511,15 +10781,17 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>689900</v>
+        <v>420300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/lifan/x50/</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>689900</v>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>420300</t>
+        </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
@@ -10544,15 +10816,17 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>769900</v>
+        <v>491300</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/lifan/x60/</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>769900</v>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>491300</t>
+        </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
@@ -10577,15 +10851,17 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>989000</v>
+        <v>770300</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/lifan/x70/</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>989000</v>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>770300</t>
+        </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
@@ -10610,11 +10886,11 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1911900</v>
+        <v>1784930</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/livan/s6_pro/</t>
+          <t>https://autocentr-city.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="J225" t="n">
@@ -10625,8 +10901,10 @@
           <t>https://tumen-car.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>2549900</v>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>1784930</t>
+        </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
@@ -10659,11 +10937,11 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1389900</v>
+        <v>1189930</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/livan/x3_pro/</t>
+          <t>https://autocentr-city.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -10682,8 +10960,10 @@
           <t>https://tumen-car.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1879900</v>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>1189930</t>
+        </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
@@ -10716,11 +10996,11 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1972900</v>
+        <v>1840930</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/livan/x6_pro/</t>
+          <t>https://autocentr-city.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -10731,8 +11011,10 @@
           <t>https://tumen-car.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>2629900</v>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
@@ -11067,8 +11349,10 @@
           <t>https://tumen-car.ru/cars/moskvich/3/</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1700000</v>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>1280000</t>
+        </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -11101,15 +11385,17 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3950000</v>
+        <v>2765000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/moskvich/3e/</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>3950000</v>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>2765000</t>
+        </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -11190,8 +11476,10 @@
           <t>https://tumen-car.ru/cars/nissan/murano/</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>4409000</v>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>2499000</t>
+        </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
@@ -11239,8 +11527,10 @@
           <t>https://tumen-car.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>2337000</v>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>1390000</t>
+        </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
@@ -11288,8 +11578,10 @@
           <t>https://tumen-car.ru/cars/nissan/terrano/</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1690000</v>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>669000</t>
+        </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
@@ -11322,15 +11614,17 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2762000</v>
+        <v>1149000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>2762000</v>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>1149000</t>
+        </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
@@ -11400,7 +11694,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/omoda/c5/</t>
+          <t>https://autocentr-city.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="J243" t="n">
@@ -11411,8 +11705,10 @@
           <t>https://tumen-car.ru/cars/omoda/c5/</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>2679900</v>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>1219900</t>
+        </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
@@ -11493,8 +11789,10 @@
           <t>https://tumen-car.ru/cars/omoda/s5/</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>2249900</v>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>1469900</t>
+        </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
@@ -11788,8 +12086,10 @@
           <t>https://tumen-car.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>825000</v>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>344000</t>
+        </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
@@ -11837,8 +12137,10 @@
           <t>https://tumen-car.ru/cars/ravon/r2/</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>883000</v>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>334000</t>
+        </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
@@ -11886,8 +12188,10 @@
           <t>https://tumen-car.ru/cars/ravon/r4/</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>851000</v>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>394000</t>
+        </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
@@ -11935,8 +12239,10 @@
           <t>https://tumen-car.ru/cars/renault/arkana/</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1874000</v>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>938000</t>
+        </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
@@ -12010,15 +12316,17 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1618000</v>
+        <v>646000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/renault/duster/</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1618000</v>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>646000</t>
+        </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
@@ -12058,8 +12366,10 @@
           <t>https://tumen-car.ru/cars/renault/kaptur/</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1724000</v>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>896000</t>
+        </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
@@ -12107,8 +12417,10 @@
           <t>https://tumen-car.ru/cars/renault/logan/</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1124000</v>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>430000</t>
+        </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
@@ -12156,8 +12468,10 @@
           <t>https://tumen-car.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1301000</v>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>536990</t>
+        </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
@@ -12190,15 +12504,17 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1321000</v>
+        <v>924700</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1321000</v>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>924700</t>
+        </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
@@ -12238,8 +12554,10 @@
           <t>https://tumen-car.ru/cars/renault/sandero/</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1258000</v>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>431000</t>
+        </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
@@ -12287,8 +12605,10 @@
           <t>https://tumen-car.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1373000</v>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>566990</t>
+        </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
@@ -12321,15 +12641,17 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1393000</v>
+        <v>975100</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1393000</v>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>975100</t>
+        </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
@@ -12492,8 +12814,10 @@
           <t>https://tumen-car.ru/cars/skoda/karoq/</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>2716000</v>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>1066900</t>
+        </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
@@ -12567,15 +12891,17 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3640000</v>
+        <v>2548000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>3640000</v>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>2548000</t>
+        </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
@@ -12641,15 +12967,17 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2613000</v>
+        <v>1214000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/skoda/octavia/</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>2613000</v>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>1214000</t>
+        </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
@@ -12678,7 +13006,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/skoda/rapid/</t>
+          <t>https://autocentr-city.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="J273" t="n">
@@ -12689,8 +13017,10 @@
           <t>https://tumen-car.ru/cars/skoda/rapid/</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1602000</v>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>570300</t>
+        </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
@@ -12738,8 +13068,10 @@
           <t>https://tumen-car.ru/cars/skoda/superb/</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>3386000</v>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>1830000</t>
+        </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
@@ -12772,15 +13104,17 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3817000</v>
+        <v>2671900</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>3817000</v>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>2671900</t>
+        </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
@@ -12820,8 +13154,10 @@
           <t>https://tumen-car.ru/cars/solaris/hc/</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>2499000</v>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>1892000</t>
+        </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
@@ -12869,8 +13205,10 @@
           <t>https://tumen-car.ru/cars/solaris/hs/</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>2010000</v>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>1396000</t>
+        </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
@@ -12918,8 +13256,10 @@
           <t>https://tumen-car.ru/cars/solaris/krs/</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>2038000</v>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>1459000</t>
+        </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
@@ -12967,8 +13307,10 @@
           <t>https://tumen-car.ru/cars/solaris/krx/</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>2064000</v>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>1576000</t>
+        </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
@@ -13042,11 +13384,11 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2900000</v>
+        <v>2869300</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/tank/300/</t>
+          <t>https://autocentr-city.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="J281" t="n">
@@ -13057,8 +13399,10 @@
           <t>https://tumen-car.ru/cars/tank/300/</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>4099000</v>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>2869300</t>
+        </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
@@ -13106,8 +13450,10 @@
           <t>https://tumen-car.ru/cars/tank/500/</t>
         </is>
       </c>
-      <c r="L282" t="n">
-        <v>6299000</v>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>4409300</t>
+        </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
@@ -13345,15 +13691,17 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1395000</v>
+        <v>976500</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/uaz/hunter/</t>
         </is>
       </c>
-      <c r="L288" t="n">
-        <v>1395000</v>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>976500</t>
+        </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
@@ -13378,15 +13726,17 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1545000</v>
+        <v>657000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/uaz/patriot/</t>
         </is>
       </c>
-      <c r="L289" t="n">
-        <v>1545000</v>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>657000</t>
+        </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
@@ -13452,15 +13802,17 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1570000</v>
+        <v>696500</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1570000</v>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>696500</t>
+        </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
@@ -13541,8 +13893,10 @@
           <t>https://tumen-car.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1627000</v>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>1070300</t>
+        </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
@@ -13575,11 +13929,11 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1954000</v>
+        <v>1859200</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/passat/</t>
+          <t>https://autocentr-city.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="J294" t="n">
@@ -13590,8 +13944,10 @@
           <t>https://tumen-car.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>2656000</v>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>1859200</t>
+        </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
@@ -13639,8 +13995,10 @@
           <t>https://tumen-car.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1620900</v>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>540300</t>
+        </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
@@ -13673,15 +14031,17 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2828900</v>
+        <v>1980230</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>2828900</v>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>1980230</t>
+        </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
@@ -13788,15 +14148,17 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>3375900</v>
+        <v>1329900</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>3375900</v>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>1329900</t>
+        </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
@@ -13854,15 +14216,17 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1189600</v>
+        <v>835640</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/zotye/coupa/</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1189600</v>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>835640</t>
+        </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
@@ -13887,15 +14251,17 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>971600</v>
+        <v>734000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
           <t>https://autocentr-city.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>971600</v>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>734000</t>
+        </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,16 @@
           <t>autotumen.ru</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>avto-trend72.ru_price</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>avto-trend72.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -519,7 +529,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/baic/bj40/</t>
+          <t>https://avto-trend72.ru/auto/baic/bj40/</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -530,16 +540,6 @@
           <t>https://tumen-car.ru/cars/baic/bj40/</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2631930</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/baic/bj40/</t>
-        </is>
-      </c>
       <c r="N2" t="n">
         <v>3119000</v>
       </c>
@@ -548,6 +548,16 @@
           <t>https://autotumen.ru/cars/baic/bj40/</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2631930</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/baic/bj40/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -570,7 +580,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/baic/u5_plus/</t>
+          <t>https://avto-trend72.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -581,16 +591,6 @@
           <t>https://tumen-car.ru/cars/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1535030</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/baic/u5_plus/</t>
-        </is>
-      </c>
       <c r="N3" t="n">
         <v>1585000</v>
       </c>
@@ -599,6 +599,16 @@
           <t>https://autotumen.ru/cars/baic/u5_plus/</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1535030</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/baic/u5_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -621,7 +631,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/baic/x35/</t>
+          <t>https://avto-trend72.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -632,16 +642,6 @@
           <t>https://tumen-car.ru/cars/baic/x35/</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1470000</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/baic/x35/</t>
-        </is>
-      </c>
       <c r="N4" t="n">
         <v>1740000</v>
       </c>
@@ -650,6 +650,16 @@
           <t>https://autotumen.ru/cars/baic/x35/</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1470000</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/baic/x35/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,7 +682,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/baic/x55/</t>
+          <t>https://avto-trend72.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -683,16 +693,6 @@
           <t>https://tumen-car.ru/cars/baic/x55/</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2065000</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/baic/x55/</t>
-        </is>
-      </c>
       <c r="N5" t="n">
         <v>2080000</v>
       </c>
@@ -701,6 +701,16 @@
           <t>https://autotumen.ru/cars/baic/x55/</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2065000</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/baic/x55/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -783,16 +793,6 @@
           <t>https://tumen-car.ru/cars/belgee/x50/</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1349000</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/belgee/x50/</t>
-        </is>
-      </c>
       <c r="N7" t="n">
         <v>766000</v>
       </c>
@@ -801,6 +801,16 @@
           <t>https://autotumen.ru/cars/belgee/x50/</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1349000</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/belgee/x50/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -823,7 +833,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/belgee/x70/</t>
+          <t>https://avto-trend72.ru/auto/belgee/x70/</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -842,16 +852,6 @@
           <t>https://tumen-car.ru/cars/belgee/x70/</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1054000</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/belgee/x70/</t>
-        </is>
-      </c>
       <c r="N8" t="n">
         <v>1054000</v>
       </c>
@@ -860,6 +860,16 @@
           <t>https://autotumen.ru/cars/belgee/x70/</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1054000</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/belgee/x70/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -948,7 +958,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/changan/alsvin/</t>
+          <t>https://avto-trend72.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -967,16 +977,6 @@
           <t>https://tumen-car.ru/cars/changan/alsvin/</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1129000</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/alsvin/</t>
-        </is>
-      </c>
       <c r="N11" t="n">
         <v>1299900</v>
       </c>
@@ -985,6 +985,16 @@
           <t>https://autotumen.ru/cars/changan/alsvin/</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1129000</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1048,7 +1058,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/cs35plus_new/</t>
+          <t>https://avto-trend72.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1067,16 +1077,6 @@
           <t>https://tumen-car.ru/cars/changan/cs35plus_new/</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1289900</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/cs35_plus/</t>
-        </is>
-      </c>
       <c r="N13" t="n">
         <v>1289900</v>
       </c>
@@ -1085,6 +1085,16 @@
           <t>https://autotumen.ru/cars/changan/cs35plus_new/</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1289900</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1107,7 +1117,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/cs55/</t>
+          <t>https://avto-trend72.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1118,16 +1128,6 @@
           <t>https://tumen-car.ru/cars/changan/cs55/</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>910300</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/cs55/</t>
-        </is>
-      </c>
       <c r="N14" t="n">
         <v>910300</v>
       </c>
@@ -1136,6 +1136,16 @@
           <t>https://autotumen.ru/cars/changan/cs55/</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>910300</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1158,7 +1168,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/cs55plus/</t>
+          <t>https://avto-trend72.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1169,16 +1179,6 @@
           <t>https://tumen-car.ru/cars/changan/cs55plus/</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>1949900</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/cs55_plus/</t>
-        </is>
-      </c>
       <c r="N15" t="n">
         <v>1949900</v>
       </c>
@@ -1187,6 +1187,16 @@
           <t>https://autotumen.ru/cars/changan/cs55plus/</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1949900</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1258,7 +1268,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/cs75fl/</t>
+          <t>https://avto-trend72.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1269,16 +1279,6 @@
           <t>https://tumen-car.ru/cars/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1330300</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/cs75fl/</t>
-        </is>
-      </c>
       <c r="N17" t="n">
         <v>1330300</v>
       </c>
@@ -1287,6 +1287,16 @@
           <t>https://autotumen.ru/cars/changan/cs75fl/</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1330300</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/cs75fl/</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1309,7 +1319,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/cs85coupe/</t>
+          <t>https://avto-trend72.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1320,16 +1330,6 @@
           <t>https://tumen-car.ru/cars/changan/cs85coupe/</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1979900</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/cs85_coupe/</t>
-        </is>
-      </c>
       <c r="N18" t="n">
         <v>1979900</v>
       </c>
@@ -1338,6 +1338,16 @@
           <t>https://autotumen.ru/cars/changan/cs85coupe/</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1979900</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1360,7 +1370,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/changan/cs95/</t>
+          <t>https://avto-trend72.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1371,16 +1381,6 @@
           <t>https://tumen-car.ru/cars/changan/cs95/</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2300950</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/cs95/</t>
-        </is>
-      </c>
       <c r="N19" t="n">
         <v>3409900</v>
       </c>
@@ -1389,6 +1389,16 @@
           <t>https://autotumen.ru/cars/changan/cs95/</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2300950</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/cs95/</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1460,7 +1470,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/eadoplus/</t>
+          <t>https://avto-trend72.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1479,16 +1489,6 @@
           <t>https://tumen-car.ru/cars/changan/eadoplus/</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1809900</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/eado_plus/</t>
-        </is>
-      </c>
       <c r="N21" t="n">
         <v>1809900</v>
       </c>
@@ -1497,6 +1497,16 @@
           <t>https://autotumen.ru/cars/changan/eadoplus/</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1809900</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1538,16 +1548,6 @@
           <t>https://tumen-car.ru/cars/changan/hunter_plus/</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2939900</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/hunter_plus/</t>
-        </is>
-      </c>
       <c r="N22" t="n">
         <v>2436900</v>
       </c>
@@ -1556,6 +1556,16 @@
           <t>https://autotumen.ru/cars/changan/hunter_plus/</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2939900</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/hunter_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1578,7 +1588,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/changan/lamore/</t>
+          <t>https://avto-trend72.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1597,16 +1607,6 @@
           <t>https://tumen-car.ru/cars/changan/lamore/</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1757637</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/lamore/</t>
-        </is>
-      </c>
       <c r="N23" t="n">
         <v>2119000</v>
       </c>
@@ -1615,6 +1615,16 @@
           <t>https://autotumen.ru/cars/changan/lamore/</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1757637</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1637,7 +1647,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/changan/uni-k/</t>
+          <t>https://avto-trend72.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1656,16 +1666,6 @@
           <t>https://tumen-car.ru/cars/changan/uni_k/</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1959900</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
       <c r="N24" t="n">
         <v>2959900</v>
       </c>
@@ -1674,6 +1674,16 @@
           <t>https://autotumen.ru/cars/changan/uni_k/</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1959900</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1764,16 +1774,6 @@
           <t>https://tumen-car.ru/cars/changan/uni-t/</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2349900</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
       <c r="N26" t="n">
         <v>2349900</v>
       </c>
@@ -1782,6 +1782,16 @@
           <t>https://autotumen.ru/cars/changan/uni-t/</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2349900</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1804,7 +1814,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/changan/uni_v/</t>
+          <t>https://avto-trend72.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1823,16 +1833,6 @@
           <t>https://tumen-car.ru/cars/changan/uni_v/</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1999900</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/changan/uni-v/</t>
-        </is>
-      </c>
       <c r="N27" t="n">
         <v>1999900</v>
       </c>
@@ -1841,6 +1841,16 @@
           <t>https://autotumen.ru/cars/changan/uni_v/</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1999900</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1882,16 +1892,6 @@
           <t>https://tumen-car.ru/cars/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2379930</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/arrizo_8/</t>
-        </is>
-      </c>
       <c r="N28" t="n">
         <v>1549900</v>
       </c>
@@ -1900,6 +1900,16 @@
           <t>https://autotumen.ru/cars/chery/arrizo_8/</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2379930</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1922,17 +1932,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_3/</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/chery/tiggo_3/</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>479900</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_3/</t>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1967,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_4/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1976,16 +1986,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_4/</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>526900</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_4_i_restailing/</t>
-        </is>
-      </c>
       <c r="N30" t="n">
         <v>526900</v>
       </c>
@@ -1994,6 +1994,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_4/</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>526900</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_4_i_restailing/</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2016,17 +2026,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/new_tiggo_4/</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1080000</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2037,6 +2037,16 @@
           <t>https://autotumen.ru/cars/chery/new_tiggo_4/</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1080000</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2059,7 +2069,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_4_pro/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2078,16 +2088,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_4_pro/</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>869900</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_4_pro/</t>
-        </is>
-      </c>
       <c r="N32" t="n">
         <v>869900</v>
       </c>
@@ -2096,6 +2096,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_4_pro/</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>869900</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_4_pro/</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2118,17 +2128,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_5/</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/chery/tiggo_5/</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>743900</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_5/</t>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2163,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_7/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2164,16 +2174,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_7/</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>850300</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_7/</t>
-        </is>
-      </c>
       <c r="N34" t="n">
         <v>850300</v>
       </c>
@@ -2182,6 +2182,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_7/</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>850300</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_7/</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2204,7 +2214,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_7_pro/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2215,16 +2225,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_7_pro/</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>820300</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_7_pro/</t>
-        </is>
-      </c>
       <c r="N35" t="n">
         <v>820300</v>
       </c>
@@ -2233,6 +2233,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_7_pro/</t>
         </is>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>820300</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2255,7 +2265,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_7_pro_max/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2274,16 +2284,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1169900</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_7_pro_max_1/</t>
-        </is>
-      </c>
       <c r="N36" t="n">
         <v>1169900</v>
       </c>
@@ -2292,6 +2292,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1169900</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2317,16 +2327,6 @@
           <t>https://autotumen.ru/cars/chery/new_tiggo_7_pro_max/</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1939000</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_7_pro_max/</t>
-        </is>
-      </c>
       <c r="N37" t="n">
         <v>1247000</v>
       </c>
@@ -2335,6 +2335,16 @@
           <t>https://autotumen.ru/cars/chery/new_tiggo_7_pro_max/</t>
         </is>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1939000</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2357,7 +2367,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2368,16 +2378,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_8/</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1389900</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
       <c r="N38" t="n">
         <v>1389900</v>
       </c>
@@ -2386,6 +2386,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_8/</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1389900</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2449,7 +2459,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_8_pro/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2460,16 +2470,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_8_pro/</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>1169900</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro/</t>
-        </is>
-      </c>
       <c r="N40" t="n">
         <v>1169900</v>
       </c>
@@ -2478,6 +2478,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_8_pro/</t>
         </is>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>1169900</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2500,7 +2510,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2511,16 +2521,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>1873400</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max_1/</t>
-        </is>
-      </c>
       <c r="N41" t="n">
         <v>1880900</v>
       </c>
@@ -2529,6 +2529,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1873400</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2551,7 +2561,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/new_tiggo_8_pro_max/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2570,16 +2580,6 @@
           <t>https://tumen-car.ru/cars/chery/new_tiggo_8_pro_max/</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2189900</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_8_pro_max/</t>
-        </is>
-      </c>
       <c r="N42" t="n">
         <v>2189900</v>
       </c>
@@ -2588,6 +2588,16 @@
           <t>https://autotumen.ru/cars/chery/new_tiggo_8_pro_max/</t>
         </is>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2189900</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_8_pro_max/</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2610,7 +2620,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/tiggo_9/</t>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_9/</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2629,16 +2639,6 @@
           <t>https://tumen-car.ru/cars/chery/tiggo_9/</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2905000</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chery/tiggo_9/</t>
-        </is>
-      </c>
       <c r="N43" t="n">
         <v>2905000</v>
       </c>
@@ -2647,6 +2647,16 @@
           <t>https://autotumen.ru/cars/chery/tiggo_9/</t>
         </is>
       </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2905000</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chery/tiggo_9/</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2669,17 +2679,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>667730</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/cobalt/</t>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
@@ -2704,17 +2714,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>616630</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/nexia/</t>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
@@ -2739,17 +2749,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>665630</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/chevrolet/spark/</t>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3153,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/lx/</t>
+          <t>https://avto-trend72.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3154,16 +3164,6 @@
           <t>https://tumen-car.ru/cars/cheryexeed/lx/</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>1469900</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/exeed/lx/</t>
-        </is>
-      </c>
       <c r="N56" t="n">
         <v>1469900</v>
       </c>
@@ -3172,6 +3172,16 @@
           <t>https://autotumen.ru/cars/cheryexeed/lx/</t>
         </is>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1469900</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/exeed/lx/</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3194,7 +3204,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/exeed/rx/</t>
+          <t>https://avto-trend72.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3205,16 +3215,6 @@
           <t>https://tumen-car.ru/cars/cheryexeed/rx/</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2939000</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/exeed/rx/</t>
-        </is>
-      </c>
       <c r="N57" t="n">
         <v>3149000</v>
       </c>
@@ -3223,6 +3223,16 @@
           <t>https://autotumen.ru/cars/cheryexeed/rx/</t>
         </is>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2939000</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3256,16 +3266,6 @@
           <t>https://tumen-car.ru/cars/cheryexeed/txl/</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2099900</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
       <c r="N58" t="n">
         <v>1746000</v>
       </c>
@@ -3274,6 +3274,16 @@
           <t>https://autotumen.ru/cars/cheryexeed/txl/</t>
         </is>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2099900</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3337,7 +3347,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/cheryexeed/vx/</t>
+          <t>https://avto-trend72.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3348,16 +3358,6 @@
           <t>https://tumen-car.ru/cars/cheryexeed/vx/</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>3009900</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/exeed/vx/</t>
-        </is>
-      </c>
       <c r="N60" t="n">
         <v>3009900</v>
       </c>
@@ -3366,6 +3366,16 @@
           <t>https://autotumen.ru/cars/cheryexeed/vx/</t>
         </is>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>3009900</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3429,7 +3439,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_b70/</t>
+          <t>https://avto-trend72.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3440,16 +3450,6 @@
           <t>https://tumen-car.ru/cars/faw/bestune_b70/</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1838000</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
       <c r="N62" t="n">
         <v>1982000</v>
       </c>
@@ -3458,6 +3458,16 @@
           <t>https://autotumen.ru/cars/faw/bestune_b70/</t>
         </is>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1838000</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3480,7 +3490,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_t55/</t>
+          <t>https://avto-trend72.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3491,16 +3501,6 @@
           <t>https://tumen-car.ru/cars/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>1849000</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_t55/</t>
-        </is>
-      </c>
       <c r="N63" t="n">
         <v>1949000</v>
       </c>
@@ -3509,6 +3509,16 @@
           <t>https://autotumen.ru/cars/faw/bestune_t55/</t>
         </is>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1849000</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3531,7 +3541,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/besturn_t77/</t>
+          <t>https://avto-trend72.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3542,16 +3552,6 @@
           <t>https://tumen-car.ru/cars/faw/bestune_t77/</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1359000</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
       <c r="N64" t="n">
         <v>2306000</v>
       </c>
@@ -3560,6 +3560,16 @@
           <t>https://autotumen.ru/cars/faw/bestune_t77/</t>
         </is>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1359000</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3582,7 +3592,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_t99/</t>
+          <t>https://avto-trend72.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3593,16 +3603,6 @@
           <t>https://tumen-car.ru/cars/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2065000</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/bestune_t99/</t>
-        </is>
-      </c>
       <c r="N65" t="n">
         <v>2475000</v>
       </c>
@@ -3611,6 +3611,16 @@
           <t>https://autotumen.ru/cars/faw/bestune_t99/</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>2065000</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/faw/bestune_t99/</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3715,17 +3725,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>650000</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/x40/</t>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
@@ -3750,17 +3760,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>879000</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/faw/x80/</t>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3836,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs3/</t>
+          <t>https://avto-trend72.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3837,16 +3847,6 @@
           <t>https://tumen-car.ru/cars/gac/gs3/</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>1725000</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/gac/gs3/</t>
-        </is>
-      </c>
       <c r="N71" t="n">
         <v>1725000</v>
       </c>
@@ -3855,6 +3855,16 @@
           <t>https://autotumen.ru/cars/gac/gs3/</t>
         </is>
       </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1725000</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3877,7 +3887,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/gac/gs5/</t>
+          <t>https://avto-trend72.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3888,16 +3898,6 @@
           <t>https://tumen-car.ru/cars/gac/gs5/</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1020000</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/gac/gs5/</t>
-        </is>
-      </c>
       <c r="N72" t="n">
         <v>1020000</v>
       </c>
@@ -3906,6 +3906,16 @@
           <t>https://autotumen.ru/cars/gac/gs5/</t>
         </is>
       </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>1020000</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3939,16 +3949,6 @@
           <t>https://tumen-car.ru/cars/gac/gs8/</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>2449300</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/gac/gs8/</t>
-        </is>
-      </c>
       <c r="N73" t="n">
         <v>1408000</v>
       </c>
@@ -3957,6 +3957,16 @@
           <t>https://autotumen.ru/cars/gac/gs8/</t>
         </is>
       </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>2449300</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4061,7 +4071,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas/</t>
+          <t>https://avto-trend72.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -4080,16 +4090,6 @@
           <t>https://tumen-car.ru/cars/geely/atlas/</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>1549290</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
       <c r="N76" t="n">
         <v>1549290</v>
       </c>
@@ -4098,6 +4098,16 @@
           <t>https://autotumen.ru/cars/geely/atlas/</t>
         </is>
       </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1549290</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4120,7 +4130,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas_new/</t>
+          <t>https://avto-trend72.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4131,16 +4141,6 @@
           <t>https://tumen-car.ru/cars/geely/atlas_new/</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>1957990</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
       <c r="N77" t="n">
         <v>1957990</v>
       </c>
@@ -4149,6 +4149,16 @@
           <t>https://autotumen.ru/cars/geely/atlas_new/</t>
         </is>
       </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>1957990</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4171,7 +4181,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/atlas_pro/</t>
+          <t>https://avto-trend72.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -4190,16 +4200,6 @@
           <t>https://tumen-car.ru/cars/geely/atlas_pro/</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>1618990</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/atlas_pro/</t>
-        </is>
-      </c>
       <c r="N78" t="n">
         <v>1618990</v>
       </c>
@@ -4208,6 +4208,16 @@
           <t>https://autotumen.ru/cars/geely/atlas_pro/</t>
         </is>
       </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1618990</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4320,7 +4330,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/coolray/</t>
+          <t>https://avto-trend72.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4331,16 +4341,6 @@
           <t>https://tumen-car.ru/cars/geely/coolray/</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>772300</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
       <c r="N81" t="n">
         <v>772300</v>
       </c>
@@ -4349,6 +4349,16 @@
           <t>https://autotumen.ru/cars/geely/coolray/</t>
         </is>
       </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>772300</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4371,7 +4381,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/coolray_new/</t>
+          <t>https://avto-trend72.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -4390,16 +4400,6 @@
           <t>https://tumen-car.ru/cars/geely/coolray_new/</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>1115000</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
       <c r="N82" t="n">
         <v>1115000</v>
       </c>
@@ -4408,6 +4408,16 @@
           <t>https://autotumen.ru/cars/geely/coolray_new/</t>
         </is>
       </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>1115000</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4512,17 +4522,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>1040000</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/emgrand/</t>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
@@ -4547,17 +4557,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/geely/emgrand_x7/</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/geely/emgrand_x7/</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>937000</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/emgrand_x7/</t>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4592,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/gs/</t>
+          <t>https://avto-trend72.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -4593,16 +4603,6 @@
           <t>https://tumen-car.ru/cars/geely/gs/</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>699890</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/gs/</t>
-        </is>
-      </c>
       <c r="N87" t="n">
         <v>699890</v>
       </c>
@@ -4611,6 +4611,16 @@
           <t>https://autotumen.ru/cars/geely/gs/</t>
         </is>
       </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>699890</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/gs/</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4633,7 +4643,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/geely/monjaro/</t>
+          <t>https://avto-trend72.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -4652,16 +4662,6 @@
           <t>https://tumen-car.ru/cars/geely/monjaro/</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>2159990</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/monjaro/</t>
-        </is>
-      </c>
       <c r="N88" t="n">
         <v>2159990</v>
       </c>
@@ -4670,6 +4670,16 @@
           <t>https://autotumen.ru/cars/geely/monjaro/</t>
         </is>
       </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>2159990</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4774,7 +4784,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/geely/okavango/</t>
+          <t>https://avto-trend72.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -4785,16 +4795,6 @@
           <t>https://tumen-car.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>1854000</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/okavango/</t>
-        </is>
-      </c>
       <c r="N91" t="n">
         <v>2067000</v>
       </c>
@@ -4803,6 +4803,16 @@
           <t>https://autotumen.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>1854000</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4956,7 +4966,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/geely/tugella/</t>
+          <t>https://avto-trend72.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -4967,16 +4977,6 @@
           <t>https://tumen-car.ru/cars/geely/tugella_new/</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>1983990</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
       <c r="N95" t="n">
         <v>2359990</v>
       </c>
@@ -4985,6 +4985,16 @@
           <t>https://autotumen.ru/cars/geely/tugella_new/</t>
         </is>
       </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>1983990</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5084,16 +5094,6 @@
           <t>https://tumen-car.ru/cars/haval/dargo/</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>1690000</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
       <c r="N98" t="n">
         <v>1609000</v>
       </c>
@@ -5102,6 +5102,16 @@
           <t>https://autotumen.ru/cars/haval/dargo/</t>
         </is>
       </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1690000</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5124,7 +5134,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/haval/dargo_x/</t>
+          <t>https://avto-trend72.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5135,16 +5145,6 @@
           <t>https://tumen-car.ru/cars/haval/dargo_x/</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>1780000</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
       <c r="N99" t="n">
         <v>1780000</v>
       </c>
@@ -5153,6 +5153,16 @@
           <t>https://autotumen.ru/cars/haval/dargo_x/</t>
         </is>
       </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>1780000</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5216,7 +5226,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/haval/new_f7/</t>
+          <t>https://avto-trend72.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -5227,16 +5237,6 @@
           <t>https://tumen-car.ru/cars/haval/new_f7/</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>1150000</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/f7/</t>
-        </is>
-      </c>
       <c r="N101" t="n">
         <v>1150000</v>
       </c>
@@ -5245,6 +5245,16 @@
           <t>https://autotumen.ru/cars/haval/new_f7/</t>
         </is>
       </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1150000</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/f7/</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5308,7 +5318,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/haval/new_f7x/</t>
+          <t>https://avto-trend72.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -5319,16 +5329,6 @@
           <t>https://tumen-car.ru/cars/haval/new_f7x/</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>1310000</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
       <c r="N103" t="n">
         <v>1310000</v>
       </c>
@@ -5337,6 +5337,16 @@
           <t>https://autotumen.ru/cars/haval/new_f7x/</t>
         </is>
       </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>1310000</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5359,7 +5369,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/haval/h3/</t>
+          <t>https://avto-trend72.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -5370,16 +5380,6 @@
           <t>https://tumen-car.ru/cars/haval/h3/</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>1980000</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/h3/</t>
-        </is>
-      </c>
       <c r="N104" t="n">
         <v>1980000</v>
       </c>
@@ -5388,6 +5388,16 @@
           <t>https://autotumen.ru/cars/haval/h3/</t>
         </is>
       </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>1980000</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/h3/</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5410,17 +5420,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/haval/h5_i/</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
         <is>
           <t>879000</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/h5_i/</t>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5455,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/haval/new_h5/</t>
+          <t>https://avto-trend72.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -5456,16 +5466,6 @@
           <t>https://tumen-car.ru/cars/haval/new_h5/</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>1757000</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/h5/</t>
-        </is>
-      </c>
       <c r="N106" t="n">
         <v>1757000</v>
       </c>
@@ -5474,6 +5474,16 @@
           <t>https://autotumen.ru/cars/haval/new_h5/</t>
         </is>
       </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>1757000</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/h5/</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5529,7 +5539,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/haval/h9/</t>
+          <t>https://avto-trend72.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -5540,16 +5550,6 @@
           <t>https://tumen-car.ru/cars/haval/h9/</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>2007000</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/h9/</t>
-        </is>
-      </c>
       <c r="N108" t="n">
         <v>2007000</v>
       </c>
@@ -5558,6 +5558,16 @@
           <t>https://autotumen.ru/cars/haval/h9/</t>
         </is>
       </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>2007000</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/h9/</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5632,16 +5642,6 @@
           <t>https://tumen-car.ru/cars/haval/jolion/</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>935520</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
       <c r="N110" t="n">
         <v>890000</v>
       </c>
@@ -5650,6 +5650,16 @@
           <t>https://autotumen.ru/cars/haval/jolion/</t>
         </is>
       </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>935520</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5683,16 +5693,6 @@
           <t>https://tumen-car.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>959520</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
       <c r="N111" t="n">
         <v>990000</v>
       </c>
@@ -5701,6 +5701,16 @@
           <t>https://autotumen.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>959520</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5723,7 +5733,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/haval/m6/</t>
+          <t>https://avto-trend72.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -5734,16 +5744,6 @@
           <t>https://tumen-car.ru/cars/haval/m6/</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>1509000</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/haval/m6/</t>
-        </is>
-      </c>
       <c r="N112" t="n">
         <v>1509000</v>
       </c>
@@ -5752,6 +5752,16 @@
           <t>https://autotumen.ru/cars/haval/m6/</t>
         </is>
       </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>1509000</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/haval/m6/</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5815,7 +5825,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/hyundai/creta/</t>
+          <t>https://avto-trend72.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -5826,16 +5836,6 @@
           <t>https://tumen-car.ru/cars/hyundai/creta/</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>699300</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/hyundai/creta/</t>
-        </is>
-      </c>
       <c r="N114" t="n">
         <v>699300</v>
       </c>
@@ -5844,6 +5844,16 @@
           <t>https://autotumen.ru/cars/hyundai/creta/</t>
         </is>
       </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>699300</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5907,7 +5917,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/hyundai/elantra_new/</t>
+          <t>https://avto-trend72.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -5918,16 +5928,6 @@
           <t>https://tumen-car.ru/cars/hyundai/elantra_new/</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>1505000</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/hyundai/elantra/</t>
-        </is>
-      </c>
       <c r="N116" t="n">
         <v>1505000</v>
       </c>
@@ -5936,6 +5936,16 @@
           <t>https://autotumen.ru/cars/hyundai/elantra_new/</t>
         </is>
       </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>1505000</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6163,7 +6173,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/hyundai/solaris/</t>
+          <t>https://avto-trend72.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -6174,16 +6184,6 @@
           <t>https://tumen-car.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>503000</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/hyundai/solaris/</t>
-        </is>
-      </c>
       <c r="N122" t="n">
         <v>503000</v>
       </c>
@@ -6192,6 +6192,16 @@
           <t>https://autotumen.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>503000</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6214,7 +6224,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/hyundai/sonata/</t>
+          <t>https://avto-trend72.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -6225,16 +6235,6 @@
           <t>https://tumen-car.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>1130200</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/hyundai/sonata/</t>
-        </is>
-      </c>
       <c r="N123" t="n">
         <v>1130200</v>
       </c>
@@ -6243,6 +6243,16 @@
           <t>https://autotumen.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>1130200</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6388,17 +6398,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/hyundai/tucson/</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
         <is>
           <t>1499000</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/hyundai/tucson/</t>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6433,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/jac/j7/</t>
+          <t>https://avto-trend72.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -6442,16 +6452,6 @@
           <t>https://tumen-car.ru/cars/jac/j7/</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>740000</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jac/j7/</t>
-        </is>
-      </c>
       <c r="N128" t="n">
         <v>749000</v>
       </c>
@@ -6460,6 +6460,16 @@
           <t>https://autotumen.ru/cars/jac/j7/</t>
         </is>
       </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>740000</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jac/j7/</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6580,7 +6590,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jac/s3/</t>
+          <t>https://avto-trend72.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -6591,16 +6601,6 @@
           <t>https://tumen-car.ru/cars/jac/s3/</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>809000</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jac/s3/</t>
-        </is>
-      </c>
       <c r="N131" t="n">
         <v>809000</v>
       </c>
@@ -6609,6 +6609,16 @@
           <t>https://autotumen.ru/cars/jac/s3/</t>
         </is>
       </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>809000</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jac/s3/</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6631,7 +6641,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jac/s7/</t>
+          <t>https://avto-trend72.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -6642,16 +6652,6 @@
           <t>https://tumen-car.ru/cars/jac/s7/</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>989000</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jac/s7/</t>
-        </is>
-      </c>
       <c r="N132" t="n">
         <v>989000</v>
       </c>
@@ -6660,6 +6660,16 @@
           <t>https://autotumen.ru/cars/jac/s7/</t>
         </is>
       </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>989000</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jac/s7/</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6789,7 +6799,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/jaecoo/j7/</t>
+          <t>https://avto-trend72.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="J136" t="n">
@@ -6800,16 +6810,6 @@
           <t>https://tumen-car.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>2016000</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jaecoo/j7/</t>
-        </is>
-      </c>
       <c r="N136" t="n">
         <v>2249900</v>
       </c>
@@ -6818,6 +6818,16 @@
           <t>https://autotumen.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>2016000</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6840,7 +6850,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jaecoo/j8/</t>
+          <t>https://avto-trend72.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -6851,16 +6861,6 @@
           <t>https://tumen-car.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>3079000</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jaecoo/j8/</t>
-        </is>
-      </c>
       <c r="N137" t="n">
         <v>3079000</v>
       </c>
@@ -6869,6 +6869,16 @@
           <t>https://autotumen.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>3079000</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6891,7 +6901,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jetour/dashing/</t>
+          <t>https://avto-trend72.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -6910,16 +6920,6 @@
           <t>https://tumen-car.ru/cars/jetour/dashing/</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>1849900</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
       <c r="N138" t="n">
         <v>1849900</v>
       </c>
@@ -6928,6 +6928,16 @@
           <t>https://autotumen.ru/cars/jetour/dashing/</t>
         </is>
       </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>1849900</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6950,7 +6960,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/jetour/t2/</t>
+          <t>https://avto-trend72.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -6969,16 +6979,6 @@
           <t>https://tumen-car.ru/cars/jetour/t2/</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>2359000</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
       <c r="N139" t="n">
         <v>2664000</v>
       </c>
@@ -6987,6 +6987,16 @@
           <t>https://autotumen.ru/cars/jetour/t2/</t>
         </is>
       </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>2359000</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7050,7 +7060,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/jetour/x70_plus/</t>
+          <t>https://avto-trend72.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -7069,16 +7079,6 @@
           <t>https://tumen-car.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>1809900</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jetour/x70_plus/</t>
-        </is>
-      </c>
       <c r="N141" t="n">
         <v>1809900</v>
       </c>
@@ -7087,6 +7087,16 @@
           <t>https://autotumen.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>1809900</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7109,7 +7119,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-trend72.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -7128,16 +7138,6 @@
           <t>https://tumen-car.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>2274930</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
       <c r="N142" t="n">
         <v>2759900</v>
       </c>
@@ -7146,6 +7146,16 @@
           <t>https://autotumen.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>2274930</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7168,7 +7178,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/jetta/va3/</t>
+          <t>https://avto-trend72.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -7179,14 +7189,14 @@
           <t>https://bazis-motors.ru/cars/jetta/va3/</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="P143" t="inlineStr">
         <is>
           <t>1200000</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jetta/va3/</t>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7221,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/jetta/vs5/</t>
+          <t>https://avto-trend72.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -7222,14 +7232,14 @@
           <t>https://bazis-motors.ru/cars/jetta/vs5/</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="P144" t="inlineStr">
         <is>
           <t>1500000</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jetta/vs5/</t>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7264,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/jetta/vs7/</t>
+          <t>https://avto-trend72.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -7265,14 +7275,14 @@
           <t>https://bazis-motors.ru/cars/jetta/vs7/</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="P145" t="inlineStr">
         <is>
           <t>1659000</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/jetta/vs7/</t>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7307,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-trend72.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="J146" t="n">
@@ -7308,16 +7318,6 @@
           <t>https://tumen-car.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>1269000</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
       <c r="N146" t="n">
         <v>1349000</v>
       </c>
@@ -7326,6 +7326,16 @@
           <t>https://autotumen.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>1269000</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7348,7 +7358,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/x3/</t>
+          <t>https://avto-trend72.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="J147" t="n">
@@ -7359,16 +7369,6 @@
           <t>https://tumen-car.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>1566600</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/x3/</t>
-        </is>
-      </c>
       <c r="N147" t="n">
         <v>2117650</v>
       </c>
@@ -7377,6 +7377,16 @@
           <t>https://autotumen.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>1566600</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7399,7 +7409,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avto-trend72.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="J148" t="n">
@@ -7410,16 +7420,6 @@
           <t>https://tumen-car.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>1760430</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/x3_pro/</t>
-        </is>
-      </c>
       <c r="N148" t="n">
         <v>2490000</v>
       </c>
@@ -7428,6 +7428,16 @@
           <t>https://autotumen.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>1760430</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7450,7 +7460,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avto-trend72.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="J149" t="n">
@@ -7461,16 +7471,6 @@
           <t>https://tumen-car.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>1726900</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kaiyi/x7_kunlun/</t>
-        </is>
-      </c>
       <c r="N149" t="n">
         <v>2298900</v>
       </c>
@@ -7479,6 +7479,16 @@
           <t>https://autotumen.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>1726900</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7542,7 +7552,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/new_ceed/</t>
+          <t>https://avto-trend72.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="J151" t="n">
@@ -7553,16 +7563,6 @@
           <t>https://tumen-car.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>860300</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/ceed/</t>
-        </is>
-      </c>
       <c r="N151" t="n">
         <v>860300</v>
       </c>
@@ -7571,6 +7571,16 @@
           <t>https://autotumen.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>860300</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/ceed/</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7593,7 +7603,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://avto-trend72.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="J152" t="n">
@@ -7604,16 +7614,6 @@
           <t>https://tumen-car.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>870300</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/ceed_sw/</t>
-        </is>
-      </c>
       <c r="N152" t="n">
         <v>870300</v>
       </c>
@@ -7622,6 +7622,16 @@
           <t>https://autotumen.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>870300</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7685,17 +7695,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kia/cerato/</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/kia/cerato/</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
         <is>
           <t>870300</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/cerato/</t>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
@@ -7720,7 +7730,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/k5/</t>
+          <t>https://avto-trend72.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="J155" t="n">
@@ -7731,16 +7741,6 @@
           <t>https://tumen-car.ru/cars/kia/k5/</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>1070300</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/k5/</t>
-        </is>
-      </c>
       <c r="N155" t="n">
         <v>1070300</v>
       </c>
@@ -7749,6 +7749,16 @@
           <t>https://autotumen.ru/cars/kia/k5/</t>
         </is>
       </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>1070300</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/k5/</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7853,17 +7863,17 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kia/picanto/</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/kia/picanto/</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
         <is>
           <t>550745</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/picanto/</t>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
@@ -7888,17 +7898,17 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kia/proceed/</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/kia/proceed/</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
         <is>
           <t>1308930</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/proceed/</t>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
@@ -7964,17 +7974,17 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kia/rio/</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
         <is>
           <t>510300</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/rio/</t>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
@@ -7999,7 +8009,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/rio-x/</t>
+          <t>https://avto-trend72.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="J162" t="n">
@@ -8010,16 +8020,6 @@
           <t>https://tumen-car.ru/cars/kia/rio-x/</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>590300</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/rio_x/</t>
-        </is>
-      </c>
       <c r="N162" t="n">
         <v>590300</v>
       </c>
@@ -8028,6 +8028,16 @@
           <t>https://autotumen.ru/cars/kia/rio-x/</t>
         </is>
       </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>590300</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8050,7 +8060,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/rio_x_line/</t>
+          <t>https://avto-trend72.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="J163" t="n">
@@ -8061,16 +8071,6 @@
           <t>https://tumen-car.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>557000</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/rio_x-line/</t>
-        </is>
-      </c>
       <c r="N163" t="n">
         <v>557000</v>
       </c>
@@ -8079,6 +8079,16 @@
           <t>https://autotumen.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>557000</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8101,7 +8111,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/seltos/</t>
+          <t>https://avto-trend72.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="J164" t="n">
@@ -8112,16 +8122,6 @@
           <t>https://tumen-car.ru/cars/kia/seltos/</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/seltos/</t>
-        </is>
-      </c>
       <c r="N164" t="n">
         <v>970300</v>
       </c>
@@ -8130,6 +8130,16 @@
           <t>https://autotumen.ru/cars/kia/seltos/</t>
         </is>
       </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>970300</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8275,7 +8285,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/soul/</t>
+          <t>https://avto-trend72.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="J168" t="n">
@@ -8286,16 +8296,6 @@
           <t>https://tumen-car.ru/cars/kia/soul/</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>571200</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/soul/</t>
-        </is>
-      </c>
       <c r="N168" t="n">
         <v>571200</v>
       </c>
@@ -8304,6 +8304,16 @@
           <t>https://autotumen.ru/cars/kia/soul/</t>
         </is>
       </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>571200</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/soul/</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8367,17 +8377,17 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/kia/sportage/</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
         <is>
           <t>1949900</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/sportage/</t>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8494,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/kia/xceed/</t>
+          <t>https://avto-trend72.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="J173" t="n">
@@ -8495,16 +8505,6 @@
           <t>https://tumen-car.ru/cars/kia/xceed/</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>1004900</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
       <c r="N173" t="n">
         <v>1004900</v>
       </c>
@@ -8513,6 +8513,16 @@
           <t>https://autotumen.ru/cars/kia/xceed/</t>
         </is>
       </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>1004900</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8682,7 +8692,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_cross/</t>
+          <t>https://avto-trend72.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8701,16 +8711,6 @@
           <t>https://tumen-car.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>437700</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
       <c r="N177" t="n">
         <v>437700</v>
       </c>
@@ -8719,6 +8719,16 @@
           <t>https://autotumen.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>437700</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8801,14 +8811,14 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="P179" t="inlineStr">
         <is>
           <t>544950</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/granta_hatchback/</t>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8843,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_liftback/</t>
+          <t>https://avto-trend72.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -8852,16 +8862,6 @@
           <t>https://tumen-car.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>343700</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
       <c r="N180" t="n">
         <v>343700</v>
       </c>
@@ -8870,6 +8870,16 @@
           <t>https://autotumen.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>343700</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8892,7 +8902,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-trend72.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -8903,14 +8913,14 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L181" t="inlineStr">
+      <c r="P181" t="inlineStr">
         <is>
           <t>321700</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/granta_sedan/</t>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8945,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sd_drive_active/</t>
+          <t>https://avto-trend72.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -8954,16 +8964,6 @@
           <t>https://tumen-car.ru/cars/lada/granta_sd_drive_active/</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>387900</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
       <c r="N182" t="n">
         <v>387900</v>
       </c>
@@ -8972,6 +8972,16 @@
           <t>https://autotumen.ru/cars/lada/granta_sd_drive_active/</t>
         </is>
       </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>387900</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9224,7 +9234,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/granta_sw/</t>
+          <t>https://avto-trend72.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9243,16 +9253,6 @@
           <t>https://tumen-car.ru/cars/lada/granta_sw/</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>351300</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
       <c r="N189" t="n">
         <v>351300</v>
       </c>
@@ -9261,6 +9261,16 @@
           <t>https://autotumen.ru/cars/lada/granta_sw/</t>
         </is>
       </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>351300</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9349,7 +9359,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-trend72.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="J192" t="n">
@@ -9360,16 +9370,6 @@
           <t>https://tumen-car.ru/cars/lada/largus_cross_new_5/</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>695300</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
       <c r="N192" t="n">
         <v>702300</v>
       </c>
@@ -9378,6 +9378,16 @@
           <t>https://autotumen.ru/cars/lada/largus_cross_new_5/</t>
         </is>
       </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>695300</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9441,7 +9451,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/largus_new_5/</t>
+          <t>https://avto-trend72.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="J194" t="n">
@@ -9452,16 +9462,6 @@
           <t>https://tumen-car.ru/cars/lada/largus_new_5/</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>555300</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/largus/</t>
-        </is>
-      </c>
       <c r="N194" t="n">
         <v>555300</v>
       </c>
@@ -9470,6 +9470,16 @@
           <t>https://autotumen.ru/cars/lada/largus_new_5/</t>
         </is>
       </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>555300</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/largus/</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9574,17 +9584,17 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
         <is>
           <t>444300</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/largus_furgon/</t>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
@@ -9620,14 +9630,14 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr">
+      <c r="P198" t="inlineStr">
         <is>
           <t>516600</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/niva/</t>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
@@ -9652,7 +9662,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://avto-trend72.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9671,16 +9681,6 @@
           <t>https://tumen-car.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>538300</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/4x4_3_dv/</t>
-        </is>
-      </c>
       <c r="N199" t="n">
         <v>538300</v>
       </c>
@@ -9689,6 +9689,16 @@
           <t>https://autotumen.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>538300</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9730,16 +9740,6 @@
           <t>https://tumen-car.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>560300</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/4x4_5_dv/</t>
-        </is>
-      </c>
       <c r="N200" t="n">
         <v>560300</v>
       </c>
@@ -9748,6 +9748,16 @@
           <t>https://autotumen.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>560300</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9781,14 +9791,14 @@
           <t>https://avtosrf5-11.ru</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr">
+      <c r="P201" t="inlineStr">
         <is>
           <t>576800</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/niva_off-road/</t>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
@@ -9832,16 +9842,6 @@
           <t>https://tumen-car.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>875000</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
       <c r="N202" t="n">
         <v>875000</v>
       </c>
@@ -9850,6 +9850,16 @@
           <t>https://autotumen.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>875000</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9938,7 +9948,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cross/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -9957,16 +9967,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>634700</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
       <c r="N205" t="n">
         <v>634700</v>
       </c>
@@ -9975,6 +9975,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>634700</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9997,7 +10007,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_cross_new/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="J206" t="n">
@@ -10008,16 +10018,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_cross_new/</t>
         </is>
       </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>876700</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
       <c r="N206" t="n">
         <v>876700</v>
       </c>
@@ -10026,6 +10026,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_cross_new/</t>
         </is>
       </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>876700</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10048,7 +10058,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10067,16 +10077,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>612700</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
       <c r="N207" t="n">
         <v>612700</v>
       </c>
@@ -10085,6 +10085,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>612700</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10107,7 +10117,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10126,16 +10136,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>727700</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
       <c r="N208" t="n">
         <v>727700</v>
       </c>
@@ -10144,6 +10144,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>727700</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10166,7 +10176,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="J209" t="n">
@@ -10177,16 +10187,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw_cross_new/</t>
         </is>
       </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>844700</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_sw_cross/</t>
-        </is>
-      </c>
       <c r="N209" t="n">
         <v>876700</v>
       </c>
@@ -10195,6 +10195,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_sw_cross_new/</t>
         </is>
       </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>844700</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10217,7 +10227,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_sw_new/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="J210" t="n">
@@ -10228,16 +10238,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_sw_new/</t>
         </is>
       </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>789700</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
       <c r="N210" t="n">
         <v>789700</v>
       </c>
@@ -10246,6 +10246,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_sw_new/</t>
         </is>
       </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>789700</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10301,7 +10311,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10320,16 +10330,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta/</t>
         </is>
       </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>525700</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
       <c r="N212" t="n">
         <v>525700</v>
       </c>
@@ -10338,6 +10338,16 @@
           <t>https://autotumen.ru/cars/lada/vesta/</t>
         </is>
       </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>525700</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10379,16 +10389,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_cng/</t>
         </is>
       </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>725700</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_cng/</t>
-        </is>
-      </c>
       <c r="N213" t="n">
         <v>725700</v>
       </c>
@@ -10397,6 +10397,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_cng/</t>
         </is>
       </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>725700</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10419,7 +10429,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta_new/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="J214" t="n">
@@ -10430,16 +10440,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta_new/</t>
         </is>
       </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>712700</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
       <c r="N214" t="n">
         <v>712700</v>
       </c>
@@ -10448,6 +10448,16 @@
           <t>https://autotumen.ru/cars/lada/vesta_new/</t>
         </is>
       </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>712700</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10470,7 +10480,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/vesta-sport/</t>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="J215" t="n">
@@ -10481,16 +10491,6 @@
           <t>https://tumen-car.ru/cars/lada/vesta-sport/</t>
         </is>
       </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>931700</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/vesta_sport/</t>
-        </is>
-      </c>
       <c r="N215" t="n">
         <v>931700</v>
       </c>
@@ -10499,6 +10499,16 @@
           <t>https://autotumen.ru/cars/lada/vesta-sport/</t>
         </is>
       </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>931700</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -10562,7 +10572,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/xray/</t>
+          <t>https://avto-trend72.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10581,16 +10591,6 @@
           <t>https://tumen-car.ru/cars/lada/xray/</t>
         </is>
       </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>496700</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/xray/</t>
-        </is>
-      </c>
       <c r="N217" t="n">
         <v>496700</v>
       </c>
@@ -10599,6 +10599,16 @@
           <t>https://autotumen.ru/cars/lada/xray/</t>
         </is>
       </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>496700</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/xray/</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -10621,7 +10631,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/lada/xray_cross/</t>
+          <t>https://avto-trend72.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10640,16 +10650,6 @@
           <t>https://tumen-car.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>583700</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
       <c r="N218" t="n">
         <v>583700</v>
       </c>
@@ -10658,6 +10658,16 @@
           <t>https://autotumen.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>583700</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10680,17 +10690,17 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
         <is>
           <t>650300</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lifan/murman/</t>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
@@ -10715,17 +10725,17 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lifan/myway/</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
         <is>
           <t>701300</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lifan/myway/</t>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
@@ -10750,17 +10760,17 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lifan/solano_ii/</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
         <is>
           <t>401300</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lifan/solano_ii/</t>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
@@ -10785,17 +10795,17 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
         <is>
           <t>420300</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lifan/x50/</t>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
@@ -10820,17 +10830,17 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/lifan/x60/</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
         <is>
           <t>491300</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lifan/x60/</t>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
@@ -10855,17 +10865,17 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/lifan/x70/</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/lifan/x70/</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
         <is>
           <t>770300</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/lifan/x70/</t>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10900,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/livan/s6pro/</t>
+          <t>https://avto-trend72.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="J225" t="n">
@@ -10901,16 +10911,6 @@
           <t>https://tumen-car.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>1784930</t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
       <c r="N225" t="n">
         <v>1911900</v>
       </c>
@@ -10919,6 +10919,16 @@
           <t>https://autotumen.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>1784930</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -10941,7 +10951,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/livan/x3pro/</t>
+          <t>https://avto-trend72.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -10960,16 +10970,6 @@
           <t>https://tumen-car.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>1189930</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
       <c r="N226" t="n">
         <v>1459000</v>
       </c>
@@ -10978,6 +10978,16 @@
           <t>https://autotumen.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>1189930</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11000,7 +11010,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/livan/x6pro/</t>
+          <t>https://avto-trend72.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -11011,16 +11021,6 @@
           <t>https://tumen-car.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>1840930</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
       <c r="N227" t="n">
         <v>1972900</v>
       </c>
@@ -11029,6 +11029,16 @@
           <t>https://autotumen.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11338,7 +11348,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/moskvich/3/</t>
+          <t>https://avto-trend72.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="J235" t="n">
@@ -11349,16 +11359,6 @@
           <t>https://tumen-car.ru/cars/moskvich/3/</t>
         </is>
       </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>1280000</t>
-        </is>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
       <c r="N235" t="n">
         <v>1280000</v>
       </c>
@@ -11367,6 +11367,16 @@
           <t>https://autotumen.ru/cars/moskvich/3/</t>
         </is>
       </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>1280000</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -11389,17 +11399,17 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/moskvich/3e/</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
         <is>
           <t>2765000</t>
         </is>
       </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/moskvich/3e/</t>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
@@ -11465,7 +11475,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/murano/</t>
+          <t>https://avto-trend72.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="J238" t="n">
@@ -11476,16 +11486,6 @@
           <t>https://tumen-car.ru/cars/nissan/murano/</t>
         </is>
       </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>2499000</t>
-        </is>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
       <c r="N238" t="n">
         <v>2499000</v>
       </c>
@@ -11494,6 +11494,16 @@
           <t>https://autotumen.ru/cars/nissan/murano/</t>
         </is>
       </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>2499000</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -11516,7 +11526,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/qashqai_new/</t>
+          <t>https://avto-trend72.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="J239" t="n">
@@ -11527,16 +11537,6 @@
           <t>https://tumen-car.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>1390000</t>
-        </is>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
       <c r="N239" t="n">
         <v>1390000</v>
       </c>
@@ -11545,6 +11545,16 @@
           <t>https://autotumen.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>1390000</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -11567,7 +11577,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/nissan/terrano/</t>
+          <t>https://avto-trend72.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="J240" t="n">
@@ -11578,16 +11588,6 @@
           <t>https://tumen-car.ru/cars/nissan/terrano/</t>
         </is>
       </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>669000</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
       <c r="N240" t="n">
         <v>669000</v>
       </c>
@@ -11596,6 +11596,16 @@
           <t>https://autotumen.ru/cars/nissan/terrano/</t>
         </is>
       </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>669000</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -11618,17 +11628,17 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="L241" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
         <is>
           <t>1149000</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/nissan/x-trail/</t>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
@@ -11694,7 +11704,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/omoda/c5/</t>
+          <t>https://avto-trend72.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="J243" t="n">
@@ -11705,16 +11715,6 @@
           <t>https://tumen-car.ru/cars/omoda/c5/</t>
         </is>
       </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>1219900</t>
-        </is>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
       <c r="N243" t="n">
         <v>1679900</v>
       </c>
@@ -11723,6 +11723,16 @@
           <t>https://autotumen.ru/cars/omoda/c5/</t>
         </is>
       </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>1219900</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -11778,7 +11788,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/omoda/s5/</t>
+          <t>https://avto-trend72.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="J245" t="n">
@@ -11789,16 +11799,6 @@
           <t>https://tumen-car.ru/cars/omoda/s5/</t>
         </is>
       </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>1469900</t>
-        </is>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
       <c r="N245" t="n">
         <v>1469900</v>
       </c>
@@ -11807,6 +11807,16 @@
           <t>https://autotumen.ru/cars/omoda/s5/</t>
         </is>
       </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>1469900</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12075,7 +12085,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
+          <t>https://avto-trend72.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="J252" t="n">
@@ -12086,16 +12096,6 @@
           <t>https://tumen-car.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>344000</t>
-        </is>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/ravon/nexia_r3/</t>
-        </is>
-      </c>
       <c r="N252" t="n">
         <v>344000</v>
       </c>
@@ -12104,6 +12104,16 @@
           <t>https://autotumen.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>344000</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/ravon/nexia_r3/</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -12126,7 +12136,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r2/</t>
+          <t>https://avto-trend72.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="J253" t="n">
@@ -12137,16 +12147,6 @@
           <t>https://tumen-car.ru/cars/ravon/r2/</t>
         </is>
       </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>334000</t>
-        </is>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/ravon/r2/</t>
-        </is>
-      </c>
       <c r="N253" t="n">
         <v>334000</v>
       </c>
@@ -12155,6 +12155,16 @@
           <t>https://autotumen.ru/cars/ravon/r2/</t>
         </is>
       </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>334000</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/ravon/r2/</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -12177,7 +12187,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/ravon/r4/</t>
+          <t>https://avto-trend72.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="J254" t="n">
@@ -12188,16 +12198,6 @@
           <t>https://tumen-car.ru/cars/ravon/r4/</t>
         </is>
       </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>394000</t>
-        </is>
-      </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/ravon/r4/</t>
-        </is>
-      </c>
       <c r="N254" t="n">
         <v>394000</v>
       </c>
@@ -12206,6 +12206,16 @@
           <t>https://autotumen.ru/cars/ravon/r4/</t>
         </is>
       </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>394000</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/ravon/r4/</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -12228,7 +12238,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/arkana/</t>
+          <t>https://avto-trend72.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="J255" t="n">
@@ -12239,16 +12249,6 @@
           <t>https://tumen-car.ru/cars/renault/arkana/</t>
         </is>
       </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>938000</t>
-        </is>
-      </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
       <c r="N255" t="n">
         <v>938000</v>
       </c>
@@ -12257,6 +12257,16 @@
           <t>https://autotumen.ru/cars/renault/arkana/</t>
         </is>
       </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>938000</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -12320,17 +12330,17 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="L257" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
         <is>
           <t>646000</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/duster/</t>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12365,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/kaptur/</t>
+          <t>https://avto-trend72.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="J258" t="n">
@@ -12366,16 +12376,6 @@
           <t>https://tumen-car.ru/cars/renault/kaptur/</t>
         </is>
       </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>896000</t>
-        </is>
-      </c>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
       <c r="N258" t="n">
         <v>896000</v>
       </c>
@@ -12384,6 +12384,16 @@
           <t>https://autotumen.ru/cars/renault/kaptur/</t>
         </is>
       </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>896000</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -12406,7 +12416,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan/</t>
+          <t>https://avto-trend72.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="J259" t="n">
@@ -12417,16 +12427,6 @@
           <t>https://tumen-car.ru/cars/renault/logan/</t>
         </is>
       </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>430000</t>
-        </is>
-      </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/logan/</t>
-        </is>
-      </c>
       <c r="N259" t="n">
         <v>430000</v>
       </c>
@@ -12435,6 +12435,16 @@
           <t>https://autotumen.ru/cars/renault/logan/</t>
         </is>
       </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>430000</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/logan/</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -12457,7 +12467,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
+          <t>https://avto-trend72.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="J260" t="n">
@@ -12468,16 +12478,6 @@
           <t>https://tumen-car.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>536990</t>
-        </is>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
       <c r="N260" t="n">
         <v>536990</v>
       </c>
@@ -12486,6 +12486,16 @@
           <t>https://autotumen.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>536990</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -12508,17 +12518,17 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/renault/logan_stepway_city/</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/renault/logan_stepway_city/</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
         <is>
           <t>924700</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/logan_stepway_city/</t>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12553,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero/</t>
+          <t>https://avto-trend72.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="J262" t="n">
@@ -12554,16 +12564,6 @@
           <t>https://tumen-car.ru/cars/renault/sandero/</t>
         </is>
       </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>431000</t>
-        </is>
-      </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
       <c r="N262" t="n">
         <v>431000</v>
       </c>
@@ -12572,6 +12572,16 @@
           <t>https://autotumen.ru/cars/renault/sandero/</t>
         </is>
       </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>431000</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -12594,7 +12604,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
+          <t>https://avto-trend72.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="J263" t="n">
@@ -12605,16 +12615,6 @@
           <t>https://tumen-car.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>566990</t>
-        </is>
-      </c>
-      <c r="M263" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
       <c r="N263" t="n">
         <v>566990</v>
       </c>
@@ -12623,6 +12623,16 @@
           <t>https://autotumen.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>566990</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -12637,7 +12647,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway City</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -12645,17 +12655,17 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/renault/sandero_stepway_city/</t>
-        </is>
-      </c>
-      <c r="L264" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
         <is>
           <t>975100</t>
         </is>
       </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/renault/sandero_stepway_city/</t>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12813,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/karoq/</t>
+          <t>https://avto-trend72.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="J268" t="n">
@@ -12814,16 +12824,6 @@
           <t>https://tumen-car.ru/cars/skoda/karoq/</t>
         </is>
       </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>1066900</t>
-        </is>
-      </c>
-      <c r="M268" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
       <c r="N268" t="n">
         <v>1066900</v>
       </c>
@@ -12832,6 +12832,16 @@
           <t>https://autotumen.ru/cars/skoda/karoq/</t>
         </is>
       </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>1066900</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -12895,17 +12905,17 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="L270" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
         <is>
           <t>2548000</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/skoda/kodiaq/</t>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
@@ -12971,17 +12981,17 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="L272" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
         <is>
           <t>1214000</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/skoda/octavia/</t>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
@@ -13006,7 +13016,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/skoda/rapid/</t>
+          <t>https://avto-trend72.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="J273" t="n">
@@ -13017,16 +13027,6 @@
           <t>https://tumen-car.ru/cars/skoda/rapid/</t>
         </is>
       </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>570300</t>
-        </is>
-      </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
       <c r="N273" t="n">
         <v>827300</v>
       </c>
@@ -13035,6 +13035,16 @@
           <t>https://autotumen.ru/cars/skoda/rapid/</t>
         </is>
       </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>570300</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -13057,7 +13067,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/skoda/superb/</t>
+          <t>https://avto-trend72.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="J274" t="n">
@@ -13068,16 +13078,6 @@
           <t>https://tumen-car.ru/cars/skoda/superb/</t>
         </is>
       </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>1830000</t>
-        </is>
-      </c>
-      <c r="M274" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
       <c r="N274" t="n">
         <v>1830000</v>
       </c>
@@ -13086,6 +13086,16 @@
           <t>https://autotumen.ru/cars/skoda/superb/</t>
         </is>
       </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>1830000</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -13108,17 +13118,17 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="L275" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
         <is>
           <t>2671900</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/skoda/superb_combi/</t>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
@@ -13143,7 +13153,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hc/</t>
+          <t>https://avto-trend72.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="J276" t="n">
@@ -13154,16 +13164,6 @@
           <t>https://tumen-car.ru/cars/solaris/hc/</t>
         </is>
       </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>1892000</t>
-        </is>
-      </c>
-      <c r="M276" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
       <c r="N276" t="n">
         <v>1892000</v>
       </c>
@@ -13172,6 +13172,16 @@
           <t>https://autotumen.ru/cars/solaris/hc/</t>
         </is>
       </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>1892000</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -13194,7 +13204,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/hs/</t>
+          <t>https://avto-trend72.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="J277" t="n">
@@ -13205,16 +13215,6 @@
           <t>https://tumen-car.ru/cars/solaris/hs/</t>
         </is>
       </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>1396000</t>
-        </is>
-      </c>
-      <c r="M277" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
       <c r="N277" t="n">
         <v>1396000</v>
       </c>
@@ -13223,6 +13223,16 @@
           <t>https://autotumen.ru/cars/solaris/hs/</t>
         </is>
       </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>1396000</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -13245,7 +13255,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krs/</t>
+          <t>https://avto-trend72.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="J278" t="n">
@@ -13256,16 +13266,6 @@
           <t>https://tumen-car.ru/cars/solaris/krs/</t>
         </is>
       </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>1459000</t>
-        </is>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
       <c r="N278" t="n">
         <v>1459000</v>
       </c>
@@ -13274,6 +13274,16 @@
           <t>https://autotumen.ru/cars/solaris/krs/</t>
         </is>
       </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>1459000</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -13296,7 +13306,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/solaris/krx/</t>
+          <t>https://avto-trend72.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="J279" t="n">
@@ -13307,16 +13317,6 @@
           <t>https://tumen-car.ru/cars/solaris/krx/</t>
         </is>
       </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>1576000</t>
-        </is>
-      </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
       <c r="N279" t="n">
         <v>1576000</v>
       </c>
@@ -13325,6 +13325,16 @@
           <t>https://autotumen.ru/cars/solaris/krx/</t>
         </is>
       </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>1576000</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -13388,7 +13398,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/tank/300/</t>
+          <t>https://avto-trend72.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="J281" t="n">
@@ -13399,16 +13409,6 @@
           <t>https://tumen-car.ru/cars/tank/300/</t>
         </is>
       </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>2869300</t>
-        </is>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/tank/300/</t>
-        </is>
-      </c>
       <c r="N281" t="n">
         <v>2900000</v>
       </c>
@@ -13417,6 +13417,16 @@
           <t>https://autotumen.ru/cars/tank/300/</t>
         </is>
       </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>2869300</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/tank/300/</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -13450,16 +13460,6 @@
           <t>https://tumen-car.ru/cars/tank/500/</t>
         </is>
       </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>4409300</t>
-        </is>
-      </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/tank/500/</t>
-        </is>
-      </c>
       <c r="N282" t="n">
         <v>3999000</v>
       </c>
@@ -13468,6 +13468,16 @@
           <t>https://autotumen.ru/cars/tank/500/</t>
         </is>
       </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>4409300</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/tank/500/</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -13695,17 +13705,17 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="L288" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
         <is>
           <t>976500</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/uaz/hunter/</t>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
@@ -13730,17 +13740,17 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="L289" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
         <is>
           <t>657000</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/uaz/patriot/</t>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
@@ -13806,17 +13816,17 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
         <is>
           <t>696500</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/uaz/patriot_pickup/</t>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
@@ -13882,7 +13892,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
+          <t>https://avto-trend72.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="J293" t="n">
@@ -13893,16 +13903,6 @@
           <t>https://tumen-car.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>1070300</t>
-        </is>
-      </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
       <c r="N293" t="n">
         <v>1070300</v>
       </c>
@@ -13911,6 +13911,16 @@
           <t>https://autotumen.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>1070300</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -13933,7 +13943,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/passat/</t>
+          <t>https://avto-trend72.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="J294" t="n">
@@ -13944,16 +13954,6 @@
           <t>https://tumen-car.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>1859200</t>
-        </is>
-      </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
       <c r="N294" t="n">
         <v>1954000</v>
       </c>
@@ -13962,6 +13962,16 @@
           <t>https://autotumen.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>1859200</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -13984,7 +13994,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/volkswagen/polo/</t>
+          <t>https://avto-trend72.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="J295" t="n">
@@ -13995,16 +14005,6 @@
           <t>https://tumen-car.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>540300</t>
-        </is>
-      </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
       <c r="N295" t="n">
         <v>540300</v>
       </c>
@@ -14013,6 +14013,16 @@
           <t>https://autotumen.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>540300</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -14035,17 +14045,17 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="L296" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
         <is>
           <t>1980230</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/taos/</t>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
@@ -14152,17 +14162,17 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="L299" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
         <is>
           <t>1329900</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/volkswagen/tiguan/</t>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
@@ -14220,17 +14230,17 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
         <is>
           <t>835640</t>
         </is>
       </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/zotye/coupa/</t>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/zotye/coupa/</t>
         </is>
       </c>
     </row>
@@ -14255,17 +14265,17 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://autocentr-city.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr">
+          <t>https://avto-trend72.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
         <is>
           <t>734000</t>
         </is>
       </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>https://autocentr-city.ru/auto/zotye/t600/</t>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>https://avto-trend72.ru/auto/zotye/t600/</t>
         </is>
       </c>
     </row>

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2631930</v>
+        <v>3119000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2631930</t>
+          <t>3119000</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1535030</v>
+        <v>829000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1535030</t>
+          <t>829000</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1470000</v>
+        <v>1270000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1270000</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2065000</v>
+        <v>2080000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2080000</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -770,11 +770,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>751000</v>
+        <v>736000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/belgee/x50/</t>
+          <t>https://avto-trend72.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1054000</v>
+        <v>1004000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1054000</t>
+          <t>1004000</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1129000</v>
+        <v>769000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>769000</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1289900</v>
+        <v>979000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>979000</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1949900</v>
+        <v>1250000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2300950</v>
+        <v>3104000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2300950</t>
+          <t>3104000</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1809900</v>
+        <v>1110000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1110000</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -1525,11 +1525,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2436000</v>
+        <v>2356000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/changan/hunter_plus/</t>
+          <t>https://avto-trend72.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>2356000</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1757637</v>
+        <v>2039000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1757637</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1959900</v>
+        <v>2439000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2439000</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -1751,11 +1751,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2289900</v>
+        <v>1939000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://bazis-motors.ru/cars/changan/uni-t/</t>
+          <t>https://avto-trend72.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2349900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -1869,11 +1869,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1549900</v>
+        <v>1484000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/chery/arrizo_8/</t>
+          <t>https://avto-trend72.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2379930</t>
+          <t>1484000</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1169900</v>
+        <v>1140000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1367000</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1389900</v>
+        <v>1320000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1389900</t>
+          <t>1320000</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1873400</v>
+        <v>1790900</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1873400</t>
+          <t>1790900</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2939000</v>
+        <v>2669000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2939000</t>
+          <t>2669000</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3009900</v>
+        <v>2979900</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>3009900</t>
+          <t>2979900</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1838000</v>
+        <v>1982000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1982000</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1849000</v>
+        <v>1949000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1949000</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1359000</v>
+        <v>2306000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1359000</t>
+          <t>2306000</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2065000</v>
+        <v>2475000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2475000</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>650000</v>
+        <v>957000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>957000</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>879000</v>
+        <v>1158000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1158000</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2449300</t>
+          <t>2730000</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1549290</v>
+        <v>590000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>1549290</t>
+          <t>590000</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1957990</v>
+        <v>1830000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>1957990</t>
+          <t>1830000</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1618990</v>
+        <v>870090</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>1618990</t>
+          <t>870090</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1040000</v>
+        <v>970000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>970000</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1854000</v>
+        <v>1739000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>1739000</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1983990</v>
+        <v>1860000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>1983990</t>
+          <t>1860000</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/haval/jolion/</t>
+          <t>https://avto-trend72.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>935520</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://tumen-car.ru/cars/haval/new_jolion/</t>
+          <t>https://avto-trend72.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>959520</t>
+          <t>689000</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -5729,7 +5729,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1509000</v>
+        <v>840000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1505000</v>
+        <v>1144000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>1505000</t>
+          <t>1144000</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1499000</v>
+        <v>1304000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1304000</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>809000</v>
+        <v>679000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>679000</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -6795,7 +6795,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2016000</v>
+        <v>1830000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2016000</t>
+          <t>1830000</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1849900</v>
+        <v>1504900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>1849900</t>
+          <t>1504900</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2359000</v>
+        <v>2389000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2359000</t>
+          <t>2389000</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -7056,7 +7056,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1809900</v>
+        <v>1719900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1719900</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2274930</v>
+        <v>2219900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2274930</t>
+          <t>2219900</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1200000</v>
+        <v>1858000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1858000</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1500000</v>
+        <v>2258000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>2258000</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1659000</v>
+        <v>2879000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>2879000</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1269000</v>
+        <v>879000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1566600</v>
+        <v>889000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>1566600</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1760430</v>
+        <v>869000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>1760430</t>
+          <t>869000</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1726900</v>
+        <v>1749000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>1726900</t>
+          <t>1749000</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>860300</v>
+        <v>683000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>860300</t>
+          <t>683000</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
@@ -7599,7 +7599,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>870300</v>
+        <v>683000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>683000</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>870300</v>
+        <v>860000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1308930</v>
+        <v>1074700</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>1308930</t>
+          <t>1074700</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>970300</v>
+        <v>850000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
@@ -8373,7 +8373,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1949900</v>
+        <v>1599900</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>1599900</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1784930</v>
+        <v>890000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
@@ -10947,7 +10947,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1189930</v>
+        <v>1066900</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>1066900</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
@@ -11006,7 +11006,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1840930</v>
+        <v>1149000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1390000</v>
+        <v>740000</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
@@ -11624,7 +11624,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1149000</v>
+        <v>945000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>945000</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
@@ -11700,7 +11700,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1219900</v>
+        <v>1129000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>1129000</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
@@ -11784,7 +11784,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1469900</v>
+        <v>1339900</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1339900</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>938000</v>
+        <v>640000</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>640000</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
@@ -12326,7 +12326,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>646000</v>
+        <v>590000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>590000</t>
         </is>
       </c>
       <c r="Q257" t="inlineStr">
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>896000</v>
+        <v>670000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>670000</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>430000</v>
+        <v>390000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>390000</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr">
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>536990</v>
+        <v>500000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="Q260" t="inlineStr">
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>566990</v>
+        <v>530000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr">
@@ -12901,7 +12901,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2548000</v>
+        <v>2270000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="Q270" t="inlineStr">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1892000</v>
+        <v>1247000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>1247000</t>
         </is>
       </c>
       <c r="Q276" t="inlineStr">
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1396000</v>
+        <v>766000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>766000</t>
         </is>
       </c>
       <c r="Q277" t="inlineStr">
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1459000</v>
+        <v>789000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>789000</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr">
@@ -13302,7 +13302,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1576000</v>
+        <v>961000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>961000</t>
         </is>
       </c>
       <c r="Q279" t="inlineStr">
@@ -13394,7 +13394,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2869300</v>
+        <v>2559000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>2559000</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr">
@@ -13445,11 +13445,11 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>3999000</v>
+        <v>3919000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://autotumen.ru/cars/tank/500/</t>
+          <t>https://avto-trend72.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="J282" t="n">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>4409300</t>
+          <t>3919000</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr">

--- a/xlsx/tumen.xlsx
+++ b/xlsx/tumen.xlsx
@@ -4184,14 +4184,6 @@
           <t>https://avto-trend72.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>2226990</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://bazis-motors.ru/cars/geely/geely-atlas-pro/</t>
-        </is>
-      </c>
       <c r="J78" t="n">
         <v>1618990</v>
       </c>
